--- a/sg.xlsx
+++ b/sg.xlsx
@@ -619,6 +619,24 @@
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
   </si>
   <si>
+    <t>黄巾符水</t>
+  </si>
+  <si>
+    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>黄巾符咒</t>
+  </si>
+  <si>
+    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
+  </si>
+  <si>
     <t>起义</t>
   </si>
   <si>
@@ -628,24 +646,6 @@
     <t>[{"id":305,"obj":1,"pos":4,"value":2,"cardType":1,"force":1,"rare":12}]</t>
   </si>
   <si>
-    <t>黄巾符水</t>
-  </si>
-  <si>
-    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>黄巾符咒</t>
-  </si>
-  <si>
-    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
-  </si>
-  <si>
     <t>妖术</t>
   </si>
   <si>
@@ -664,6 +664,39 @@
     <t>[{"id":301,"obj":2,"pos":2,"value":2,"noself":1}]</t>
   </si>
   <si>
+    <t>口谕</t>
+  </si>
+  <si>
+    <t>抽一张卡</t>
+  </si>
+  <si>
+    <t>传旨</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>密旨</t>
+  </si>
+  <si>
+    <t>随机获得1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>衣带诏</t>
+  </si>
+  <si>
+    <t>减少对方5点士气 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+  </si>
+  <si>
     <t>圣旨</t>
   </si>
   <si>
@@ -673,37 +706,13 @@
     <t>[{"id":401,"obj":1,"pos":2,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
   </si>
   <si>
-    <t>传旨</t>
-  </si>
-  <si>
-    <t>随机从卡组抽取1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>密旨</t>
-  </si>
-  <si>
-    <t>随机获得1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>口谕</t>
-  </si>
-  <si>
-    <t>抽一张卡</t>
-  </si>
-  <si>
-    <t>衣带诏</t>
-  </si>
-  <si>
-    <t>减少对方5点士气 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+    <t>弄权</t>
+  </si>
+  <si>
+    <t>我方随机十常侍武将获得圣盾和3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":3,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
   </si>
   <si>
     <t>谗言</t>
@@ -712,6 +721,18 @@
     <t>随机破坏对方场上1个武将</t>
   </si>
   <si>
+    <t>党锢</t>
+  </si>
+  <si>
+    <t>获得1张十常侍卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"force":3}]</t>
+  </si>
+  <si>
+    <t>伪诏</t>
+  </si>
+  <si>
     <t>结党</t>
   </si>
   <si>
@@ -719,27 +740,6 @@
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":3,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>伪诏</t>
-  </si>
-  <si>
-    <t>弄权</t>
-  </si>
-  <si>
-    <t>我方随机十常侍武将获得圣盾和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":3,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
-  </si>
-  <si>
-    <t>党锢</t>
-  </si>
-  <si>
-    <t>获得1张十常侍卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"force":3}]</t>
   </si>
   <si>
     <r>
@@ -1900,10 +1900,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1963,52 +1963,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -2016,16 +1986,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2033,10 +2003,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2051,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2068,69 +2038,69 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>10104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
-      <c r="A6" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2138,16 +2108,16 @@
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" s="1">
-        <v>10106</v>
+        <v>10105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2156,16 +2126,16 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2173,16 +2143,16 @@
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="1">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2191,16 +2161,16 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2208,34 +2178,34 @@
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="1">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2243,34 +2213,34 @@
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="1">
-        <v>10109</v>
+        <v>10108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2278,16 +2248,16 @@
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" s="1">
-        <v>10110</v>
+        <v>10109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2305,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2313,22 +2283,22 @@
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" s="1">
-        <v>10201</v>
+        <v>10110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2336,78 +2306,47 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>101</v>
+      <c r="I12" s="5">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A13" s="1">
-        <v>10202</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
+    <row r="13" customFormat="1" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" customFormat="1" spans="1:11">
       <c r="A14" s="1">
-        <v>10203</v>
+        <v>10201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -2418,16 +2357,16 @@
     </row>
     <row r="15" customFormat="1" ht="15.6" spans="1:11">
       <c r="A15" s="1">
-        <v>10204</v>
+        <v>10202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2436,16 +2375,16 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2453,16 +2392,16 @@
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="1">
-        <v>10205</v>
+        <v>10203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2471,13 +2410,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
       </c>
       <c r="I16">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -2488,16 +2427,16 @@
     </row>
     <row r="17" customFormat="1" ht="15.6" spans="1:11">
       <c r="A17" s="1">
-        <v>10206</v>
+        <v>10204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2506,16 +2445,16 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2523,16 +2462,16 @@
     </row>
     <row r="18" customFormat="1" spans="1:11">
       <c r="A18" s="1">
-        <v>10207</v>
+        <v>10205</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2541,48 +2480,51 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:11">
+    <row r="19" customFormat="1" ht="15.6" spans="1:11">
       <c r="A19" s="1">
-        <v>10208</v>
+        <v>10206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2590,34 +2532,34 @@
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="1">
-        <v>10209</v>
+        <v>10207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>63</v>
+      <c r="I20">
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2625,34 +2567,31 @@
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="1">
-        <v>10210</v>
+        <v>10208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>102</v>
-      </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2660,31 +2599,34 @@
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" s="1">
-        <v>10301</v>
+        <v>10209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2692,19 +2634,22 @@
     </row>
     <row r="23" customFormat="1" spans="1:11">
       <c r="A23" s="1">
-        <v>10302</v>
+        <v>10210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>18</v>
@@ -2713,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2724,25 +2669,22 @@
     </row>
     <row r="24" customFormat="1" spans="1:11">
       <c r="A24" s="1">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2751,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2759,16 +2701,13 @@
     </row>
     <row r="25" customFormat="1" spans="1:11">
       <c r="A25" s="1">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2777,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -2794,34 +2733,34 @@
     </row>
     <row r="26" customFormat="1" spans="1:11">
       <c r="A26" s="1">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2829,25 +2768,25 @@
     </row>
     <row r="27" customFormat="1" spans="1:11">
       <c r="A27" s="1">
-        <v>10306</v>
+        <v>10304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2856,7 +2795,7 @@
         <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2864,31 +2803,31 @@
     </row>
     <row r="28" customFormat="1" spans="1:11">
       <c r="A28" s="1">
-        <v>10307</v>
+        <v>10305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -2899,16 +2838,16 @@
     </row>
     <row r="29" customFormat="1" spans="1:11">
       <c r="A29" s="1">
-        <v>10308</v>
+        <v>10306</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2917,16 +2856,16 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2934,34 +2873,34 @@
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" s="1">
-        <v>10309</v>
+        <v>10307</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2969,34 +2908,34 @@
     </row>
     <row r="31" customFormat="1" spans="1:11">
       <c r="A31" s="1">
-        <v>10310</v>
+        <v>10308</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>18</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>81</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3004,34 +2943,34 @@
     </row>
     <row r="32" customFormat="1" spans="1:11">
       <c r="A32" s="1">
-        <v>20101</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>10309</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3039,34 +2978,34 @@
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="1">
-        <v>20102</v>
+        <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3074,16 +3013,16 @@
     </row>
     <row r="34" customFormat="1" spans="1:11">
       <c r="A34" s="1">
-        <v>20103</v>
+        <v>20101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3101,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3109,22 +3048,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="1">
-        <v>20104</v>
+        <v>20102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -3136,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3144,22 +3083,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="1">
-        <v>20105</v>
+        <v>20103</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3171,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3179,22 +3118,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" s="1">
-        <v>20201</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>20104</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -3206,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3214,22 +3153,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:11">
       <c r="A38" s="1">
-        <v>20202</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>20105</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -3241,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3249,22 +3188,22 @@
     </row>
     <row r="39" customFormat="1" spans="1:11">
       <c r="A39" s="1">
-        <v>20203</v>
+        <v>20201</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -3276,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3284,22 +3223,22 @@
     </row>
     <row r="40" customFormat="1" spans="1:11">
       <c r="A40" s="1">
-        <v>20204</v>
+        <v>20202</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -3311,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3319,22 +3258,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:11">
       <c r="A41" s="1">
-        <v>20205</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>20203</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -3346,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3354,22 +3293,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:11">
       <c r="A42" s="1">
-        <v>20301</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
+        <v>20204</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>3</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -3377,11 +3316,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="5">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3389,19 +3328,19 @@
     </row>
     <row r="43" customFormat="1" spans="1:11">
       <c r="A43" s="1">
-        <v>20302</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>20205</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -3416,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3424,22 +3363,22 @@
     </row>
     <row r="44" customFormat="1" spans="1:11">
       <c r="A44" s="1">
-        <v>20303</v>
+        <v>20301</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -3447,11 +3386,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3459,22 +3398,22 @@
     </row>
     <row r="45" customFormat="1" spans="1:11">
       <c r="A45" s="1">
-        <v>20304</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>20302</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -3482,11 +3421,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3494,16 +3433,16 @@
     </row>
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="1">
-        <v>20305</v>
+        <v>20303</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3521,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3529,22 +3468,22 @@
     </row>
     <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>20304</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -3552,31 +3491,31 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" customFormat="1" spans="1:11">
       <c r="A48" s="1">
-        <v>21002</v>
-      </c>
-      <c r="B48" t="s">
-        <v>133</v>
+        <v>20305</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -3587,69 +3526,34 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" s="1">
-        <v>21003</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    <row r="50" customFormat="1" spans="1:11">
       <c r="A50" s="1">
-        <v>21004</v>
-      </c>
-      <c r="B50" t="s">
-        <v>139</v>
+        <v>21001</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -3657,34 +3561,34 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="5">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:11">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>21005</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>142</v>
+        <v>21002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -3692,11 +3596,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3704,16 +3608,16 @@
     </row>
     <row r="52" customFormat="1" spans="1:11">
       <c r="A52" s="1">
-        <v>21006</v>
-      </c>
-      <c r="B52" t="s">
-        <v>145</v>
+        <v>21003</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3727,34 +3631,34 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="5">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:11">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>21007</v>
+        <v>21004</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -3766,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3774,22 +3678,22 @@
     </row>
     <row r="54" customFormat="1" spans="1:11">
       <c r="A54" s="1">
-        <v>21008</v>
+        <v>21005</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -3801,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3809,22 +3713,22 @@
     </row>
     <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="1">
-        <v>21009</v>
+        <v>21006</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -3836,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3844,34 +3748,34 @@
     </row>
     <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>13</v>
+        <v>21007</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" s="5">
-        <v>102</v>
+      <c r="I56">
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3879,34 +3783,34 @@
     </row>
     <row r="57" customFormat="1" spans="1:11">
       <c r="A57" s="1">
-        <v>10002</v>
+        <v>21008</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3914,34 +3818,34 @@
     </row>
     <row r="58" customFormat="1" spans="1:11">
       <c r="A58" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>18</v>
+        <v>21009</v>
+      </c>
+      <c r="B58" t="s">
+        <v>152</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" s="5">
-        <v>101</v>
+      <c r="I58">
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3949,34 +3853,34 @@
     </row>
     <row r="59" customFormat="1" spans="1:11">
       <c r="A59" s="1">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E59">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>63</v>
+      <c r="I59" s="5">
+        <v>102</v>
       </c>
       <c r="J59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3984,34 +3888,34 @@
     </row>
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" s="1">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="E60">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4019,34 +3923,34 @@
     </row>
     <row r="61" customFormat="1" spans="1:11">
       <c r="A61" s="1">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E61">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4054,22 +3958,22 @@
     </row>
     <row r="62" customFormat="1" spans="1:11">
       <c r="A62" s="1">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E62">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>15</v>
@@ -4077,11 +3981,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" s="5">
-        <v>0</v>
+      <c r="I62" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="J62" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4089,22 +3993,22 @@
     </row>
     <row r="63" customFormat="1" spans="1:11">
       <c r="A63" s="1">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E63">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>15</v>
@@ -4116,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4124,22 +4028,22 @@
     </row>
     <row r="64" customFormat="1" spans="1:11">
       <c r="A64" s="1">
-        <v>10009</v>
+        <v>10006</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E64">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>15</v>
@@ -4151,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4159,25 +4063,25 @@
     </row>
     <row r="65" customFormat="1" spans="1:11">
       <c r="A65" s="1">
-        <v>10010</v>
+        <v>10007</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E65">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4186,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4194,34 +4098,34 @@
     </row>
     <row r="66" customFormat="1" spans="1:11">
       <c r="A66" s="1">
-        <v>10011</v>
+        <v>10008</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E66">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="5">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4229,36 +4133,141 @@
     </row>
     <row r="67" customFormat="1" spans="1:11">
       <c r="A67" s="1">
-        <v>10012</v>
+        <v>10009</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E67">
         <v>11</v>
       </c>
       <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:11">
+      <c r="A68" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>170</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:11">
+      <c r="A69" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>14</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>172</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:11">
+      <c r="A70" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="G67">
+      <c r="G70">
         <v>17</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
         <v>174</v>
       </c>
-      <c r="K67">
+      <c r="K70">
         <v>0</v>
       </c>
     </row>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="253">
   <si>
     <t>id</t>
   </si>
@@ -370,13 +370,16 @@
     <t>邓茂</t>
   </si>
   <si>
+    <t>铁壁</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
     <t>程远志</t>
   </si>
   <si>
-    <t>随机抽1张(普通)黄巾势力卡牌</t>
+    <t>铁壁 战吼:随机抽1张(普通)黄巾势力卡牌</t>
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":1,"rare":1,"cardType":123}]</t>
@@ -385,6 +388,9 @@
     <t>高升</t>
   </si>
   <si>
+    <t>守护 战吼:随机抽1张(普通)黄巾势力卡牌</t>
+  </si>
+  <si>
     <t>唐周</t>
   </si>
   <si>
@@ -400,7 +406,7 @@
     <t>战吼:我方随机2个黄巾武将增加2点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"force":1,"buffId":401,"buffValue":2}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":1,"buffId":401,"buffValue":2}]</t>
   </si>
   <si>
     <t>管亥</t>
@@ -409,7 +415,7 @@
     <t>嘲讽 战吼:其它所有武将降低1点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":3,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-1}]</t>
+    <t>[{"id":401,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":-1}]</t>
   </si>
   <si>
     <t>张曼成</t>
@@ -418,7 +424,7 @@
     <t>战吼:我方其它随机1个黄巾武将获得圣盾和1点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"noself":1,"force":1,"buffId":"102_401","buffValue":"0_1"}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"noself":1,"force":1,"buffId":"102_401","buffValue":"0_1"}]</t>
   </si>
   <si>
     <t>张梁</t>
@@ -462,7 +468,7 @@
     </r>
   </si>
   <si>
-    <t>战吼:抽1张卡</t>
+    <t>铁壁 战吼:抽1张卡</t>
   </si>
   <si>
     <t>[{"id":201,"obj":1,"value":1}]</t>
@@ -497,7 +503,7 @@
     <t>卢植</t>
   </si>
   <si>
-    <t>圣盾 特殊召唤:我方场上存在东汉武将</t>
+    <t>守护 特殊召唤:我方场上存在东汉武将</t>
   </si>
   <si>
     <r>
@@ -514,7 +520,7 @@
     <t>战吼:随机破坏对方1个武将</t>
   </si>
   <si>
-    <t>[{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
   </si>
   <si>
     <t>钟繇</t>
@@ -523,13 +529,13 @@
     <t>嘲讽 战吼:对方随机1个武将降低4点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":2,"pos":2,"value":1,"buffId":401,"buffValue":-4}]</t>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4}]</t>
   </si>
   <si>
     <t>孔融</t>
   </si>
   <si>
-    <t xml:space="preserve">回复15士气 </t>
+    <t xml:space="preserve">铁壁 回复15士气 </t>
   </si>
   <si>
     <t>[{"id":202,"obj":1,"value":15}]</t>
@@ -544,7 +550,7 @@
     <t>101_102</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
   </si>
   <si>
     <t>献帝</t>
@@ -553,7 +559,7 @@
     <t>圣盾 战吼:我方其它武将增加3点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
   </si>
   <si>
     <t>郭胜</t>
@@ -562,19 +568,25 @@
     <t>夏恽</t>
   </si>
   <si>
+    <t>战吼:随机抽1张(普通)十常侍势力卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":3,"rare":1,"cardType":123}]</t>
+  </si>
+  <si>
     <t>程旷</t>
   </si>
   <si>
     <t>战吼:我方随机1个十常侍武将增加3点攻击</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":3,"buffId":401,"buffValue":3}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":3}]</t>
   </si>
   <si>
     <t>段珪</t>
   </si>
   <si>
-    <t>圣盾</t>
+    <t>守护</t>
   </si>
   <si>
     <t>侯览</t>
@@ -583,10 +595,13 @@
     <t>蹇硕</t>
   </si>
   <si>
-    <t>圣盾 战吼:我方其它十常侍武将增加2点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2}]</t>
+    <t>圣盾 铁壁 战吼:我方其它十常侍武将增加2点攻击</t>
+  </si>
+  <si>
+    <t>102_104</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2}]</t>
   </si>
   <si>
     <t>封谞</t>
@@ -604,7 +619,7 @@
     <t>赵忠</t>
   </si>
   <si>
-    <t>战吼:获得1张十常侍势力武将卡</t>
+    <t>铁壁 战吼:获得1张十常侍势力武将卡</t>
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1,"force":3}]</t>
@@ -619,13 +634,100 @@
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
   </si>
   <si>
+    <t>李乐</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>胡才</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:随机抽1张(普通/稀有)盗贼卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"rare":12,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>郭太</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"103_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>孙观</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(圣盾/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"102_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>阙宣</t>
+  </si>
+  <si>
+    <t>铁壁 特殊召唤:场上存在铁壁武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>管承</t>
+  </si>
+  <si>
+    <t>张牛角</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(守护/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"103_102_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>昌豨</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(嘲讽/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"102_101_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方所有盗贼武将随机获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>铁壁 双击 战吼:获得1张盗贼势力魔法卡</t>
+  </si>
+  <si>
+    <t>104_105</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":4}]</t>
+  </si>
+  <si>
     <t>黄巾符水</t>
   </si>
   <si>
     <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
   </si>
   <si>
     <t>黄巾符咒</t>
@@ -634,7 +736,7 @@
     <t>回复10士气 对方随机1个武将减少5点攻击力</t>
   </si>
   <si>
-    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
   </si>
   <si>
     <t>起义</t>
@@ -652,7 +754,7 @@
     <t>随机将对方场上1个武将返回卡组</t>
   </si>
   <si>
-    <t>[{"id":304,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
   </si>
   <si>
     <t>太平要术</t>
@@ -661,7 +763,7 @@
     <t>随机破坏对方场上2个武将</t>
   </si>
   <si>
-    <t>[{"id":301,"obj":2,"pos":2,"value":2,"noself":1}]</t>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
   </si>
   <si>
     <t>口谕</t>
@@ -691,10 +793,10 @@
     <t>衣带诏</t>
   </si>
   <si>
-    <t>减少对方5点士气 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+    <t>对方士气-5 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
   </si>
   <si>
     <t>圣旨</t>
@@ -703,16 +805,16 @@
     <t>我方所有东汉武将获得圣盾和3点攻击力</t>
   </si>
   <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
   </si>
   <si>
     <t>弄权</t>
   </si>
   <si>
-    <t>我方随机十常侍武将获得圣盾和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":1,"force":3,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
+    <t>我方随机十常侍武将获得铁壁和3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":"104_401","buffValue":"0_3"}]</t>
   </si>
   <si>
     <t>谗言</t>
@@ -740,6 +842,51 @@
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":3,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>偷袭</t>
+  </si>
+  <si>
+    <t>回复8士气 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":8},{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>落草</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取1张盗贼卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>聚众</t>
+  </si>
+  <si>
+    <t>对方士气-10 我方所有盗贼武将获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-10},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>掠夺</t>
+  </si>
+  <si>
+    <t>抽一张卡 移除对方随机1个武将的所有buff</t>
+  </si>
+  <si>
+    <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":-1}]</t>
+  </si>
+  <si>
+    <t>占山为王</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取2张盗贼武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":4,"cardType":1}]</t>
   </si>
   <si>
     <r>
@@ -765,7 +912,7 @@
     <t>破坏场上所有武将</t>
   </si>
   <si>
-    <t>[{"id":301,"obj":3,"pos":2,"value":-1,"noself":1}]</t>
+    <t>[{"id":301,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
   </si>
   <si>
     <t>赤焰</t>
@@ -798,6 +945,9 @@
     <t>雷击</t>
   </si>
   <si>
+    <t>[{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+  </si>
+  <si>
     <t>冰雹</t>
   </si>
   <si>
@@ -822,7 +972,7 @@
     <t>抽一张卡 移除场上所有武将buff</t>
   </si>
   <si>
-    <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":3,"pos":2,"value":-1,"noself":1,"buffId":-1}]</t>
+    <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
   </si>
   <si>
     <t>圣盾 战吼:破坏其它所有攻击力达到15的武将</t>
@@ -831,9 +981,15 @@
     <t>[{"id":301,"obj":3,"pos":2,"value":-1,"noself":1,"atk":"&gt;15"}]</t>
   </si>
   <si>
+    <t>战吼:抽1张卡</t>
+  </si>
+  <si>
     <t>嘲讽 战吼:随机破坏对方2个武将</t>
   </si>
   <si>
+    <t>[{"id":301,"obj":2,"pos":2,"value":2,"noself":1}]</t>
+  </si>
+  <si>
     <t>嘲讽 圣盾 战吼:对方随机1个武将降低3点攻击</t>
   </si>
   <si>
@@ -849,6 +1005,9 @@
     <t>战吼:其它所有武将降低1点攻击</t>
   </si>
   <si>
+    <t>[{"id":401,"obj":3,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-1}]</t>
+  </si>
+  <si>
     <t>战吼:我方其它随机2个武将获得圣盾</t>
   </si>
   <si>
@@ -883,6 +1042,81 @@
   </si>
   <si>
     <t>[{"id":303,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>测试武将</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>测试抽卡</t>
+  </si>
+  <si>
+    <t>对方抽卡时抽一张卡</t>
+  </si>
+  <si>
+    <t>{"id":1003,"obj":2}</t>
+  </si>
+  <si>
+    <t>破咒</t>
+  </si>
+  <si>
+    <t>对方攻击时清除对方所有武将buff</t>
+  </si>
+  <si>
+    <t>{"id":1005,"obj":2}</t>
+  </si>
+  <si>
+    <t>[{"id":402,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
+  </si>
+  <si>
+    <t>军魂</t>
+  </si>
+  <si>
+    <t>对方攻击时我方所有武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>增我将攻</t>
+  </si>
+  <si>
+    <t>对方攻击时我方所有武将攻击+3</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>减敌将攻</t>
+  </si>
+  <si>
+    <t>对方攻击时对方所有武将攻击-3</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":-3}]</t>
+  </si>
+  <si>
+    <t>伏兵</t>
+  </si>
+  <si>
+    <t>对方攻击时破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>伏兵连阵</t>
+  </si>
+  <si>
+    <t>对方攻击时破坏对方场上2个武将</t>
+  </si>
+  <si>
+    <t>十面埋伏</t>
+  </si>
+  <si>
+    <t>对方攻击时破坏对方场上所有武将</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
   </si>
 </sst>
 </file>
@@ -895,7 +1129,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +1147,12 @@
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1403,137 +1643,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,10 +1786,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,10 +2143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1963,22 +2206,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="I2" s="5"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>10101</v>
+        <v>10102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1986,16 +2261,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
+      <c r="I3" s="4">
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2003,16 +2278,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>10102</v>
+        <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2021,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2038,16 +2313,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>10103</v>
+        <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2056,51 +2331,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" customFormat="1" spans="1:11">
       <c r="A6" s="1">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2108,16 +2383,16 @@
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" s="1">
-        <v>10105</v>
+        <v>10106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2126,16 +2401,16 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
+      <c r="I7" s="4">
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2143,16 +2418,16 @@
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="1">
-        <v>10106</v>
+        <v>10107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2161,16 +2436,16 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <v>101</v>
+      <c r="I8" s="4">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2178,34 +2453,34 @@
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="1">
-        <v>10107</v>
+        <v>10108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4">
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2213,34 +2488,34 @@
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="1">
-        <v>10108</v>
+        <v>10109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5">
-        <v>102</v>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2248,16 +2523,16 @@
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" s="1">
-        <v>10109</v>
+        <v>10110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2271,260 +2546,260 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
+    <row r="12" customFormat="1" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>18</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:11">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="15.6" spans="1:11">
       <c r="A14" s="1">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
+      <c r="A15" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A16" s="1">
+        <v>10204</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>18</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" s="1">
+        <v>10205</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A18" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" s="1">
+        <v>10207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>101</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A15" s="1">
-        <v>10202</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="1">
-        <v>10203</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A17" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" s="1">
-        <v>10205</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18">
-        <v>102</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A19" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2532,22 +2807,22 @@
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="1">
-        <v>10207</v>
+        <v>10208</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>15</v>
@@ -2556,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2567,31 +2842,34 @@
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="1">
-        <v>10208</v>
+        <v>10209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2599,16 +2877,16 @@
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" s="1">
-        <v>10209</v>
+        <v>10210</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2622,60 +2900,32 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>63</v>
+      <c r="I22">
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" s="1">
-        <v>10210</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>18</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>102</v>
-      </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
+    <row r="23" customFormat="1" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" customFormat="1" spans="1:11">
       <c r="A24" s="1">
         <v>10301</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2684,16 +2934,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="I24" s="4">
+        <v>104</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2704,19 +2954,22 @@
         <v>10302</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2725,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2736,13 +2989,13 @@
         <v>10303</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2760,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2771,13 +3024,13 @@
         <v>10304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2792,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2806,13 +3059,13 @@
         <v>10305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2821,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2830,7 +3083,7 @@
         <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2841,13 +3094,13 @@
         <v>10306</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2861,11 +3114,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>102</v>
+      <c r="I29" t="s">
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2876,13 +3129,13 @@
         <v>10307</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2894,13 +3147,13 @@
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2911,13 +3164,13 @@
         <v>10308</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2929,13 +3182,13 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2946,13 +3199,13 @@
         <v>10309</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2966,11 +3219,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" s="4">
+        <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2981,13 +3234,13 @@
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3005,77 +3258,47 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:11">
-      <c r="A34" s="1">
-        <v>20101</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
+    <row r="34" customFormat="1" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="1">
-        <v>20102</v>
+        <v>10401</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="5">
-        <v>0</v>
+      <c r="I35" s="4">
+        <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3083,34 +3306,34 @@
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="1">
-        <v>20103</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>10402</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" s="5">
-        <v>0</v>
+      <c r="I36" s="4">
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3118,34 +3341,34 @@
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" s="1">
-        <v>20104</v>
+        <v>10403</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" s="5">
-        <v>0</v>
+      <c r="I37" s="4">
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3153,34 +3376,34 @@
     </row>
     <row r="38" customFormat="1" spans="1:11">
       <c r="A38" s="1">
-        <v>20105</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>10404</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>101</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>-1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3188,34 +3411,34 @@
     </row>
     <row r="39" customFormat="1" spans="1:11">
       <c r="A39" s="1">
-        <v>20201</v>
+        <v>10405</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39">
         <v>104</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>-1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3223,34 +3446,34 @@
     </row>
     <row r="40" customFormat="1" spans="1:11">
       <c r="A40" s="1">
-        <v>20202</v>
+        <v>10406</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>107</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40">
-        <v>-1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40">
+        <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3258,34 +3481,34 @@
     </row>
     <row r="41" customFormat="1" spans="1:11">
       <c r="A41" s="1">
-        <v>20203</v>
+        <v>10407</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3293,34 +3516,34 @@
     </row>
     <row r="42" customFormat="1" spans="1:11">
       <c r="A42" s="1">
-        <v>20204</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>112</v>
+        <v>10408</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="5">
-        <v>0</v>
+      <c r="I42">
+        <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3328,34 +3551,34 @@
     </row>
     <row r="43" customFormat="1" spans="1:11">
       <c r="A43" s="1">
-        <v>20205</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>10409</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="5">
-        <v>0</v>
+      <c r="I43">
+        <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3363,77 +3586,47 @@
     </row>
     <row r="44" customFormat="1" spans="1:11">
       <c r="A44" s="1">
-        <v>20301</v>
+        <v>10410</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="5">
-        <v>0</v>
+      <c r="I44" t="s">
+        <v>121</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:11">
-      <c r="A45" s="1">
-        <v>20302</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>-1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
+    <row r="45" customFormat="1" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="1">
-        <v>20303</v>
+        <v>20101</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>123</v>
@@ -3445,10 +3638,10 @@
         <v>124</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -3456,7 +3649,7 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <v>0</v>
       </c>
       <c r="J46" t="s">
@@ -3468,7 +3661,7 @@
     </row>
     <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="1">
-        <v>20304</v>
+        <v>20102</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>126</v>
@@ -3477,13 +3670,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -3491,11 +3684,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3503,22 +3696,22 @@
     </row>
     <row r="48" customFormat="1" spans="1:11">
       <c r="A48" s="1">
-        <v>20305</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>20103</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>3</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -3526,34 +3719,69 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:11">
+      <c r="A49" s="1">
+        <v>20104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:11">
       <c r="A50" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>20105</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -3561,66 +3789,31 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="4">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1">
-        <v>21002</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51">
-        <v>-1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>135</v>
-      </c>
-      <c r="K51">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:11">
       <c r="A52" s="1">
-        <v>21003</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>136</v>
+        <v>20201</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3631,34 +3824,34 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" customFormat="1" spans="1:11">
       <c r="A53" s="1">
-        <v>21004</v>
-      </c>
-      <c r="B53" t="s">
-        <v>139</v>
+        <v>20202</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -3666,11 +3859,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3678,22 +3871,22 @@
     </row>
     <row r="54" customFormat="1" spans="1:11">
       <c r="A54" s="1">
-        <v>21005</v>
+        <v>20203</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -3701,11 +3894,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3713,22 +3906,22 @@
     </row>
     <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="1">
-        <v>21006</v>
-      </c>
-      <c r="B55" t="s">
-        <v>145</v>
+        <v>20204</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -3736,11 +3929,11 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3748,22 +3941,22 @@
     </row>
     <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="1">
-        <v>21007</v>
-      </c>
-      <c r="B56" t="s">
-        <v>146</v>
+        <v>20205</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -3771,56 +3964,26 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:11">
-      <c r="A57" s="1">
-        <v>21008</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
+    <row r="57" customFormat="1" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" customFormat="1" spans="1:11">
       <c r="A58" s="1">
-        <v>21009</v>
-      </c>
-      <c r="B58" t="s">
+        <v>20301</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C58">
@@ -3830,10 +3993,10 @@
         <v>153</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -3841,7 +4004,7 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>0</v>
       </c>
       <c r="J58" t="s">
@@ -3853,34 +4016,34 @@
     </row>
     <row r="59" customFormat="1" spans="1:11">
       <c r="A59" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>13</v>
+        <v>20302</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" s="5">
-        <v>102</v>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3888,34 +4051,34 @@
     </row>
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" s="1">
-        <v>10002</v>
+        <v>20303</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3923,34 +4086,34 @@
     </row>
     <row r="61" customFormat="1" spans="1:11">
       <c r="A61" s="1">
-        <v>10003</v>
+        <v>20304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" s="5">
-        <v>101</v>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3958,104 +4121,69 @@
     </row>
     <row r="62" customFormat="1" spans="1:11">
       <c r="A62" s="1">
-        <v>10004</v>
+        <v>20305</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>63</v>
+      <c r="I62" s="4">
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:11">
-      <c r="A63" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63">
-        <v>11</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>15</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="5">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>161</v>
-      </c>
-      <c r="K63">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:11">
       <c r="A64" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>20401</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4063,34 +4191,34 @@
     </row>
     <row r="65" customFormat="1" spans="1:11">
       <c r="A65" s="1">
-        <v>10007</v>
+        <v>20402</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4098,34 +4226,34 @@
     </row>
     <row r="66" customFormat="1" spans="1:11">
       <c r="A66" s="1">
-        <v>10008</v>
+        <v>20403</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="4">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4133,34 +4261,34 @@
     </row>
     <row r="67" customFormat="1" spans="1:11">
       <c r="A67" s="1">
-        <v>10009</v>
+        <v>20404</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E67">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="4">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4168,106 +4296,1091 @@
     </row>
     <row r="68" customFormat="1" spans="1:11">
       <c r="A68" s="1">
-        <v>10010</v>
+        <v>20405</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="4">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:11">
-      <c r="A69" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69">
-        <v>11</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>14</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>172</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
+    <row r="69" customFormat="1" spans="1:9">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" customFormat="1" spans="1:11">
       <c r="A70" s="1">
+        <v>21001</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>181</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>184</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:11">
+      <c r="A72" s="1">
+        <v>21003</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>21004</v>
+      </c>
+      <c r="B73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:11">
+      <c r="A74" s="1">
+        <v>21005</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>193</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:11">
+      <c r="A75" s="1">
+        <v>21006</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>-1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>195</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:11">
+      <c r="A76" s="1">
+        <v>21007</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>-1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>198</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:11">
+      <c r="A77" s="1">
+        <v>21008</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:11">
+      <c r="A78" s="1">
+        <v>21009</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>204</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:11">
+      <c r="A79" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>102</v>
+      </c>
+      <c r="J79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:11">
+      <c r="A80" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:11">
+      <c r="A81" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>101</v>
+      </c>
+      <c r="J81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:11">
+      <c r="A82" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" t="s">
+        <v>211</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:11">
+      <c r="A83" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>213</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:11">
+      <c r="A84" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>215</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:11">
+      <c r="A85" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>217</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:11">
+      <c r="A86" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>219</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:11">
+      <c r="A87" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>221</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:11">
+      <c r="A88" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>223</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:11">
+      <c r="A89" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>14</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:11">
+      <c r="A90" s="1">
         <v>10012</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70">
+      <c r="B90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90">
         <v>11</v>
       </c>
-      <c r="F70">
+      <c r="F90">
         <v>3</v>
       </c>
-      <c r="G70">
+      <c r="G90">
         <v>17</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>174</v>
-      </c>
-      <c r="K70">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>227</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:11">
+      <c r="A91" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>22</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>105</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:11">
+      <c r="A92" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>232</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:11">
+      <c r="A93" s="1">
+        <v>30101</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>235</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>236</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:11">
+      <c r="A94" s="1">
+        <v>30102</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>235</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>239</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:11">
+      <c r="A95" s="1">
+        <v>30103</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>235</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>242</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:11">
+      <c r="A96" s="1">
+        <v>30104</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>235</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>245</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>30105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>235</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>30106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>235</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>137</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>30107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>235</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>252</v>
+      </c>
+      <c r="K99" s="4">
         <v>0</v>
       </c>
     </row>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -975,6 +975,24 @@
     <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
   </si>
   <si>
+    <t>旋风</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上1张陷阱卡</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":3,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>龙卷风</t>
+  </si>
+  <si>
+    <t>破坏场上所有陷阱卡</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":3,"pos":2,"cardType":3,"value":-1,"noself":1}]</t>
+  </si>
+  <si>
     <t>圣盾 战吼:破坏其它所有攻击力达到15的武将</t>
   </si>
   <si>
@@ -1050,13 +1068,43 @@
     <t>双击</t>
   </si>
   <si>
-    <t>测试抽卡</t>
-  </si>
-  <si>
-    <t>对方抽卡时抽一张卡</t>
+    <t>武将反制</t>
+  </si>
+  <si>
+    <t>反制一张对方武将卡</t>
+  </si>
+  <si>
+    <t>{"id":1011,"obj":2}</t>
+  </si>
+  <si>
+    <t>魔法反制</t>
+  </si>
+  <si>
+    <t>反制一张对方魔法卡</t>
+  </si>
+  <si>
+    <t>{"id":1012,"obj":2}</t>
+  </si>
+  <si>
+    <t>陷阱反制</t>
+  </si>
+  <si>
+    <t>反制一张对方陷阱卡</t>
+  </si>
+  <si>
+    <t>{"id":1013,"obj":2}</t>
+  </si>
+  <si>
+    <t>补给</t>
+  </si>
+  <si>
+    <t>对方抽卡时抽一张卡 士气+10</t>
   </si>
   <si>
     <t>{"id":1003,"obj":2}</t>
+  </si>
+  <si>
+    <t>[{"id":201,"obj":1,"value":1},{"id":202,"obj":1,"value":10}]</t>
   </si>
   <si>
     <t>破咒</t>
@@ -1312,12 +1360,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2143,10 +2191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3400,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
@@ -3505,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J41" t="s">
         <v>112</v>
@@ -4651,34 +4699,34 @@
     </row>
     <row r="79" customFormat="1" spans="1:11">
       <c r="A79" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>13</v>
+        <v>21010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="4">
-        <v>102</v>
+      <c r="I79">
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4686,25 +4734,25 @@
     </row>
     <row r="80" customFormat="1" spans="1:11">
       <c r="A80" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>16</v>
+        <v>21011</v>
+      </c>
+      <c r="B80" t="s">
+        <v>208</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4713,147 +4761,57 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:11">
-      <c r="A81" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E81">
-        <v>11</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>11</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <v>101</v>
-      </c>
-      <c r="J81" t="s">
-        <v>209</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:11">
-      <c r="A82" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>210</v>
-      </c>
-      <c r="E82">
-        <v>11</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J82" t="s">
-        <v>211</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:11">
-      <c r="A83" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>212</v>
-      </c>
-      <c r="E83">
-        <v>11</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>15</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>213</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
+    <row r="81" customFormat="1" spans="1:9">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:9">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" customFormat="1" spans="1:11">
       <c r="A84" s="1">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E84">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J84" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4861,34 +4819,34 @@
     </row>
     <row r="85" customFormat="1" spans="1:11">
       <c r="A85" s="1">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E85">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4896,34 +4854,34 @@
     </row>
     <row r="86" customFormat="1" spans="1:11">
       <c r="A86" s="1">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E86">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J86" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4931,22 +4889,22 @@
     </row>
     <row r="87" customFormat="1" spans="1:11">
       <c r="A87" s="1">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E87">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>15</v>
@@ -4954,11 +4912,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" s="4">
-        <v>0</v>
+      <c r="I87" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J87" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4966,25 +4924,25 @@
     </row>
     <row r="88" customFormat="1" spans="1:11">
       <c r="A88" s="1">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E88">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4993,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5001,34 +4959,34 @@
     </row>
     <row r="89" customFormat="1" spans="1:11">
       <c r="A89" s="1">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E89">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="4">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5036,16 +4994,16 @@
     </row>
     <row r="90" customFormat="1" spans="1:11">
       <c r="A90" s="1">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E90">
         <v>11</v>
@@ -5054,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5063,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5071,34 +5029,34 @@
     </row>
     <row r="91" customFormat="1" spans="1:11">
       <c r="A91" s="1">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E91">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" s="4">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5106,34 +5064,34 @@
     </row>
     <row r="92" customFormat="1" spans="1:11">
       <c r="A92" s="1">
-        <v>30001</v>
+        <v>10009</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>-1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>232</v>
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92" s="4">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5141,34 +5099,34 @@
     </row>
     <row r="93" customFormat="1" spans="1:11">
       <c r="A93" s="1">
-        <v>30101</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>233</v>
+        <v>10010</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>-1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>235</v>
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93" s="4">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5176,34 +5134,34 @@
     </row>
     <row r="94" customFormat="1" spans="1:11">
       <c r="A94" s="1">
-        <v>30102</v>
+        <v>10011</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>-1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>235</v>
-      </c>
-      <c r="I94" s="4">
+        <v>14</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5211,34 +5169,34 @@
     </row>
     <row r="95" customFormat="1" spans="1:11">
       <c r="A95" s="1">
-        <v>30103</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>240</v>
+        <v>10012</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95">
+        <v>11</v>
+      </c>
+      <c r="F95">
         <v>3</v>
       </c>
-      <c r="D95" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
       <c r="G95">
-        <v>-1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>235</v>
+        <v>17</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95" s="4">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5246,86 +5204,51 @@
     </row>
     <row r="96" customFormat="1" spans="1:11">
       <c r="A96" s="1">
-        <v>30104</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>243</v>
+        <v>10013</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>-1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>235</v>
+        <v>22</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96" s="4">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J96" t="s">
-        <v>245</v>
-      </c>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>30105</v>
-      </c>
-      <c r="B97" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>-1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>235</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:11">
       <c r="A98" s="1">
-        <v>30106</v>
-      </c>
-      <c r="B98" t="s">
-        <v>248</v>
+        <v>30001</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5337,50 +5260,370 @@
         <v>-1</v>
       </c>
       <c r="H98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I98" s="4">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>137</v>
-      </c>
-      <c r="K98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:11">
       <c r="A99" s="1">
-        <v>30107</v>
-      </c>
-      <c r="B99" t="s">
-        <v>250</v>
+        <v>30002</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99">
         <v>-1</v>
       </c>
       <c r="H99" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
       </c>
       <c r="J99" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:11">
+      <c r="A100" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>244</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:11">
+      <c r="A101" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>-1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>247</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>248</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:9">
+      <c r="A102" s="1"/>
+      <c r="B102" s="6"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" customFormat="1" spans="1:11">
+      <c r="A103" s="1">
+        <v>30101</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>-1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>251</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
         <v>252</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:11">
+      <c r="A104" s="1">
+        <v>30102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>-1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>251</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>255</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:11">
+      <c r="A105" s="1">
+        <v>30103</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>-1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>251</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>258</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:11">
+      <c r="A106" s="1">
+        <v>30104</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>-1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>251</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>261</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>30105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>-1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>251</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>56</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>30106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>265</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>-1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>251</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>30107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>267</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>-1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>251</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>268</v>
+      </c>
+      <c r="K109" s="4">
         <v>0</v>
       </c>
     </row>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17135" windowHeight="8580"/>
+    <workbookView windowWidth="16890" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -454,7 +454,19 @@
     <t>何进</t>
   </si>
   <si>
-    <t>嘲讽</t>
+    <t>嘲讽 战吼:士气-5</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5}]</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>战吼:士气+20</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20}]</t>
   </si>
   <si>
     <r>
@@ -468,19 +480,48 @@
     </r>
   </si>
   <si>
-    <t>铁壁 战吼:抽1张卡</t>
-  </si>
-  <si>
-    <t>[{"id":201,"obj":1,"value":1}]</t>
+    <t>铁壁 战吼:士气-5 抽1张卡</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":201,"obj":1,"value":1}]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈琳</t>
+    </r>
+  </si>
+  <si>
+    <t>战吼:士气-5 随机破坏对方1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>战吼:对方随机1个武将降低4点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4}]</t>
   </si>
   <si>
     <t>皇甫嵩</t>
   </si>
   <si>
-    <t>特殊召唤:我方场上存在东汉武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":2,"num":"&gt;1"}]</t>
+    <t>特殊召唤:士气少于100 战吼:士气+5</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;99"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":5}]</t>
   </si>
   <si>
     <r>
@@ -494,333 +535,313 @@
     </r>
   </si>
   <si>
-    <t>特殊召唤:我方士气少于100</t>
-  </si>
-  <si>
-    <t>[{"id":902,"obj":1,"hp":"&lt;99"}]</t>
+    <t>特殊召唤:士气少于90 战吼:士气+10</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;89"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":10}]</t>
   </si>
   <si>
     <t>卢植</t>
   </si>
   <si>
-    <t>守护 特殊召唤:我方场上存在东汉武将</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈琳</t>
-    </r>
-  </si>
-  <si>
-    <t>战吼:随机破坏对方1个武将</t>
+    <t>守护 特殊召唤:士气少于80 战吼:士气+15</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;79"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":15}]</t>
+  </si>
+  <si>
+    <t>陈留王</t>
+  </si>
+  <si>
+    <t>嘲讽 战吼:我方2个随机东汉势力武将获得圣盾和2点攻击力</t>
+  </si>
+  <si>
+    <t>101_102</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>献帝</t>
+  </si>
+  <si>
+    <t>圣盾 特殊召唤:士气少于70 战吼:我方其它武将增加3点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;69"}]</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>郭胜</t>
+  </si>
+  <si>
+    <t>夏恽</t>
+  </si>
+  <si>
+    <t>战吼:随机抽1张(普通)十常侍势力卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":3,"rare":1,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>程旷</t>
+  </si>
+  <si>
+    <t>战吼:我方随机1个十常侍武将增加3点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>段珪</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>侯览</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>蹇硕</t>
+  </si>
+  <si>
+    <t>圣盾 铁壁 战吼:我方其它十常侍武将增加2点攻击</t>
+  </si>
+  <si>
+    <t>102_104</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2}]</t>
+  </si>
+  <si>
+    <t>封谞</t>
+  </si>
+  <si>
+    <t>特殊召唤:我方场上存在十常侍武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":3,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>曹节</t>
+  </si>
+  <si>
+    <t>赵忠</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:获得1张十常侍势力武将卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1,"force":3}]</t>
+  </si>
+  <si>
+    <t>张让</t>
+  </si>
+  <si>
+    <t>战吼:获得1张十常侍势力魔法卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
+  </si>
+  <si>
+    <t>李乐</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>胡才</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:随机抽1张(普通/稀有)盗贼卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"rare":12,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>郭太</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"103_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>孙观</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(圣盾/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"102_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>阙宣</t>
+  </si>
+  <si>
+    <t>铁壁 特殊召唤:场上存在铁壁武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>管承</t>
+  </si>
+  <si>
+    <t>张牛角</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(守护/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"103_102_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>昌豨</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(嘲讽/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"102_101_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方所有盗贼武将随机获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>铁壁 双击 战吼:获得1张盗贼势力魔法卡</t>
+  </si>
+  <si>
+    <t>104_105</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":4}]</t>
+  </si>
+  <si>
+    <t>黄巾符水</t>
+  </si>
+  <si>
+    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>黄巾符咒</t>
+  </si>
+  <si>
+    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
+  </si>
+  <si>
+    <t>起义</t>
+  </si>
+  <si>
+    <t>随机获得2张(普通/稀有)黄巾势力武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":2,"cardType":1,"force":1,"rare":12}]</t>
+  </si>
+  <si>
+    <t>妖术</t>
+  </si>
+  <si>
+    <t>随机将对方场上1个武将返回卡组</t>
+  </si>
+  <si>
+    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>太平要术</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上2个武将</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
+  </si>
+  <si>
+    <t>口谕</t>
+  </si>
+  <si>
+    <t>士气-5 抽一张卡</t>
+  </si>
+  <si>
+    <t>传旨</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>密旨</t>
+  </si>
+  <si>
+    <t>随机获得1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>衣带诏</t>
+  </si>
+  <si>
+    <t>士气-5 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>圣旨</t>
+  </si>
+  <si>
+    <t>我方所有东汉武将获得圣盾和3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
+  </si>
+  <si>
+    <t>弄权</t>
+  </si>
+  <si>
+    <t>我方随机十常侍武将获得铁壁和3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":"104_401","buffValue":"0_3"}]</t>
+  </si>
+  <si>
+    <t>谗言</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上1个武将</t>
   </si>
   <si>
     <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>钟繇</t>
-  </si>
-  <si>
-    <t>嘲讽 战吼:对方随机1个武将降低4点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4}]</t>
-  </si>
-  <si>
-    <t>孔融</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铁壁 回复15士气 </t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":15}]</t>
-  </si>
-  <si>
-    <t>陈留王</t>
-  </si>
-  <si>
-    <t>嘲讽 战吼:我方2个随机东汉势力武将获得圣盾和2点攻击力</t>
-  </si>
-  <si>
-    <t>101_102</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>献帝</t>
-  </si>
-  <si>
-    <t>圣盾 战吼:我方其它武将增加3点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>郭胜</t>
-  </si>
-  <si>
-    <t>夏恽</t>
-  </si>
-  <si>
-    <t>战吼:随机抽1张(普通)十常侍势力卡牌</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":3,"rare":1,"cardType":123}]</t>
-  </si>
-  <si>
-    <t>程旷</t>
-  </si>
-  <si>
-    <t>战吼:我方随机1个十常侍武将增加3点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>段珪</t>
-  </si>
-  <si>
-    <t>守护</t>
-  </si>
-  <si>
-    <t>侯览</t>
-  </si>
-  <si>
-    <t>蹇硕</t>
-  </si>
-  <si>
-    <t>圣盾 铁壁 战吼:我方其它十常侍武将增加2点攻击</t>
-  </si>
-  <si>
-    <t>102_104</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2}]</t>
-  </si>
-  <si>
-    <t>封谞</t>
-  </si>
-  <si>
-    <t>特殊召唤:我方场上存在十常侍武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":3,"num":"&gt;1"}]</t>
-  </si>
-  <si>
-    <t>曹节</t>
-  </si>
-  <si>
-    <t>赵忠</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:获得1张十常侍势力武将卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1,"force":3}]</t>
-  </si>
-  <si>
-    <t>张让</t>
-  </si>
-  <si>
-    <t>战吼:获得1张十常侍势力魔法卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
-  </si>
-  <si>
-    <t>李乐</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}]</t>
-  </si>
-  <si>
-    <t>胡才</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:随机抽1张(普通/稀有)盗贼卡牌</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"rare":12,"cardType":123}]</t>
-  </si>
-  <si>
-    <t>郭太</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"103_401","buffValue":"2"}]</t>
-  </si>
-  <si>
-    <t>孙观</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(圣盾/攻击+3)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"102_401","buffValue":"3"}]</t>
-  </si>
-  <si>
-    <t>阙宣</t>
-  </si>
-  <si>
-    <t>铁壁 特殊召唤:场上存在铁壁武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
-  </si>
-  <si>
-    <t>管承</t>
-  </si>
-  <si>
-    <t>张牛角</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机2个盗贼武将获得(守护/圣盾/攻击+4)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"103_102_401","buffValue":"4"}]</t>
-  </si>
-  <si>
-    <t>昌豨</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机2个盗贼武将获得(嘲讽/圣盾/攻击+4)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"102_101_401","buffValue":"4"}]</t>
-  </si>
-  <si>
-    <t>张燕</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方所有盗贼武将随机获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>铁壁 双击 战吼:获得1张盗贼势力魔法卡</t>
-  </si>
-  <si>
-    <t>104_105</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":4}]</t>
-  </si>
-  <si>
-    <t>黄巾符水</t>
-  </si>
-  <si>
-    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>黄巾符咒</t>
-  </si>
-  <si>
-    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
-  </si>
-  <si>
-    <t>起义</t>
-  </si>
-  <si>
-    <t>随机获得2张(普通/稀有)黄巾势力武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":2,"cardType":1,"force":1,"rare":12}]</t>
-  </si>
-  <si>
-    <t>妖术</t>
-  </si>
-  <si>
-    <t>随机将对方场上1个武将返回卡组</t>
-  </si>
-  <si>
-    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>太平要术</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上2个武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
-  </si>
-  <si>
-    <t>口谕</t>
-  </si>
-  <si>
-    <t>抽一张卡</t>
-  </si>
-  <si>
-    <t>传旨</t>
-  </si>
-  <si>
-    <t>随机从卡组抽取1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>密旨</t>
-  </si>
-  <si>
-    <t>随机获得1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>衣带诏</t>
-  </si>
-  <si>
-    <t>对方士气-5 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>圣旨</t>
-  </si>
-  <si>
-    <t>我方所有东汉武将获得圣盾和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
-  </si>
-  <si>
-    <t>弄权</t>
-  </si>
-  <si>
-    <t>我方随机十常侍武将获得铁壁和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":"104_401","buffValue":"0_3"}]</t>
-  </si>
-  <si>
-    <t>谗言</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上1个武将</t>
   </si>
   <si>
     <t>党锢</t>
@@ -900,10 +921,19 @@
     </r>
   </si>
   <si>
-    <t>回复20士气</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":20}]</t>
+    <t>回复15士气 我方1个武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_104_105_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>回天术</t>
+  </si>
+  <si>
+    <t>回复20士气 我方全体武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
   </si>
   <si>
     <t>天崩地裂</t>
@@ -918,34 +948,43 @@
     <t>赤焰</t>
   </si>
   <si>
-    <t>减少对方15士气</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":2,"value":-15}]</t>
+    <t>减少对方20士气</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-20}]</t>
   </si>
   <si>
     <t>罗刹之盾</t>
   </si>
   <si>
-    <t>我方所有武将获得圣盾和2点攻击力</t>
+    <t>我方所有武将获得圣盾和攻击+2</t>
   </si>
   <si>
     <t>[{"id":401,"obj":1,"pos":2,"value":-1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
   </si>
   <si>
+    <t>刚体术</t>
+  </si>
+  <si>
+    <t>我方随机2个武将获得守护、铁壁和攻击+1</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":"103_104_401","buffValue":"0_0_1"}]</t>
+  </si>
+  <si>
     <t>铁腕术</t>
   </si>
   <si>
-    <t>我方随机2个武将增加4点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":401,"buffValue":4}]</t>
+    <t>我方随机2个武将增加3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":401,"buffValue":3}]</t>
   </si>
   <si>
     <t>雷击</t>
   </si>
   <si>
-    <t>[{"id":301,"obj":2,"pos":2,"value":1,"noself":1}]</t>
+    <t>[{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
   </si>
   <si>
     <t>冰雹</t>
@@ -957,13 +996,22 @@
     <t>[{"id":401,"obj":2,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-3}]</t>
   </si>
   <si>
+    <t>援军</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取1张武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"cardType":1}]</t>
+  </si>
+  <si>
     <t>援军排阵</t>
   </si>
   <si>
-    <t>随机从卡组抽取2张武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"cardType":1}]</t>
+    <t>随机从卡组抽取2张(普通/稀有)武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"cardType":1,"rare":12}]</t>
   </si>
   <si>
     <t>破咒结界</t>
@@ -993,81 +1041,15 @@
     <t>[{"id":301,"obj":3,"pos":2,"cardType":3,"value":-1,"noself":1}]</t>
   </si>
   <si>
-    <t>圣盾 战吼:破坏其它所有攻击力达到15的武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":3,"pos":2,"value":-1,"noself":1,"atk":"&gt;15"}]</t>
-  </si>
-  <si>
-    <t>战吼:抽1张卡</t>
-  </si>
-  <si>
-    <t>嘲讽 战吼:随机破坏对方2个武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"value":2,"noself":1}]</t>
-  </si>
-  <si>
-    <t>嘲讽 圣盾 战吼:对方随机1个武将降低3点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":2,"pos":2,"value":1,"buffId":401,"buffValue":-3}]</t>
-  </si>
-  <si>
-    <t>战吼:我方其它随机2个武将增加2点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":401,"buffValue":2}]</t>
-  </si>
-  <si>
-    <t>战吼:其它所有武将降低1点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":3,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-1}]</t>
-  </si>
-  <si>
-    <t>战吼:我方其它随机2个武将获得圣盾</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":102,"buffValue":0}]</t>
-  </si>
-  <si>
-    <t>战吼:对方场上随机2个武将返回手卡</t>
-  </si>
-  <si>
-    <t>[{"id":303,"obj":2,"pos":2,"value":2,"noself":1}]</t>
-  </si>
-  <si>
-    <t>战吼:对方场上全体武将返回卡组</t>
-  </si>
-  <si>
-    <t>[{"id":304,"obj":2,"pos":2,"value":-1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>战吼:随机从卡组抽取1张攻击力最高15的武将卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"cardType":1,"atk":"&lt;15"}]</t>
-  </si>
-  <si>
-    <t>战吼:随机获得1张攻击力达到16的武将卡</t>
+    <t>奇兵</t>
+  </si>
+  <si>
+    <t>随机获得1张攻击力达到16的武将卡</t>
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"cardType":1,"atk":"&gt;16"}]</t>
   </si>
   <si>
-    <t>战吼:随机将对方场上1个武将返回手卡</t>
-  </si>
-  <si>
-    <t>[{"id":303,"obj":2,"pos":2,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>测试武将</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
     <t>武将反制</t>
   </si>
   <si>
@@ -1107,15 +1089,21 @@
     <t>[{"id":201,"obj":1,"value":1},{"id":202,"obj":1,"value":10}]</t>
   </si>
   <si>
+    <t>调虎离山</t>
+  </si>
+  <si>
+    <t>对方攻击时抽一张卡 士气+15</t>
+  </si>
+  <si>
+    <t>{"id":1005,"obj":2}</t>
+  </si>
+  <si>
     <t>破咒</t>
   </si>
   <si>
     <t>对方攻击时清除对方所有武将buff</t>
   </si>
   <si>
-    <t>{"id":1005,"obj":2}</t>
-  </si>
-  <si>
     <t>[{"id":402,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
   </si>
   <si>
@@ -1165,6 +1153,24 @@
   </si>
   <si>
     <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>舌战群儒</t>
+  </si>
+  <si>
+    <t>对方攻击时对方场上所有武将返回卡组</t>
+  </si>
+  <si>
+    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>智退三军</t>
+  </si>
+  <si>
+    <t>对方攻击时对方场上所有武将返回手卡</t>
+  </si>
+  <si>
+    <t>[{"id":303,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
   </si>
 </sst>
 </file>
@@ -1360,12 +1366,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2191,26 +2197,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" customWidth="1"/>
-    <col min="3" max="3" width="4.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="40.5555555555556" customWidth="1"/>
-    <col min="5" max="6" width="4.77777777777778" customWidth="1"/>
-    <col min="7" max="7" width="7.22222222222222" customWidth="1"/>
-    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="8.11111111111111" customWidth="1"/>
+    <col min="1" max="1" width="10.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.775" customWidth="1"/>
+    <col min="3" max="3" width="4.89166666666667" customWidth="1"/>
+    <col min="4" max="4" width="40.5583333333333" customWidth="1"/>
+    <col min="5" max="6" width="4.775" customWidth="1"/>
+    <col min="7" max="7" width="7.225" customWidth="1"/>
+    <col min="8" max="8" width="13.225" customWidth="1"/>
+    <col min="9" max="9" width="8.10833333333333" customWidth="1"/>
     <col min="10" max="10" width="13.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="12" max="12" width="11.775" customWidth="1"/>
+    <col min="13" max="13" width="9.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2637,112 +2643,112 @@
         <v>101</v>
       </c>
       <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" s="1">
+        <v>10208</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A14" s="1">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A15" s="1">
         <v>10202</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A16" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>13</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>104</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:11">
-      <c r="A15" s="1">
-        <v>10203</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A16" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2750,16 +2756,16 @@
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" s="1">
-        <v>10205</v>
+        <v>10207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2768,86 +2774,86 @@
         <v>2</v>
       </c>
       <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17">
-        <v>103</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="15.6" spans="1:11">
-      <c r="A18" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>58</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:11">
+    <row r="19" customFormat="1" ht="14.25" spans="1:11">
       <c r="A19" s="1">
-        <v>10207</v>
+        <v>10204</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
       </c>
       <c r="I19">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2855,34 +2861,34 @@
     </row>
     <row r="20" customFormat="1" spans="1:11">
       <c r="A20" s="1">
-        <v>10208</v>
+        <v>10205</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2893,13 +2899,13 @@
         <v>10209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2914,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2928,13 +2934,13 @@
         <v>10210</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2945,14 +2951,14 @@
       <c r="G22">
         <v>18</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>74</v>
       </c>
       <c r="I22">
         <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2967,7 +2973,7 @@
         <v>10301</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3002,13 +3008,13 @@
         <v>10302</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -3026,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3037,13 +3043,13 @@
         <v>10303</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -3061,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3072,13 +3078,13 @@
         <v>10304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3107,13 +3113,13 @@
         <v>10305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -3142,13 +3148,13 @@
         <v>10306</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -3163,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3177,13 +3183,13 @@
         <v>10307</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -3195,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3212,13 +3218,13 @@
         <v>10308</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -3230,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3247,13 +3253,13 @@
         <v>10309</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -3271,7 +3277,7 @@
         <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3282,13 +3288,13 @@
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3322,13 +3328,13 @@
         <v>10401</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -3346,7 +3352,7 @@
         <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3357,13 +3363,13 @@
         <v>10402</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -3381,7 +3387,7 @@
         <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3392,13 +3398,13 @@
         <v>10403</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3416,7 +3422,7 @@
         <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3427,13 +3433,13 @@
         <v>10404</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -3451,7 +3457,7 @@
         <v>104</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3462,13 +3468,13 @@
         <v>10405</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -3480,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I39">
         <v>104</v>
@@ -3497,13 +3503,13 @@
         <v>10406</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -3515,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I40">
         <v>104</v>
@@ -3532,13 +3538,13 @@
         <v>10407</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -3556,7 +3562,7 @@
         <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3567,13 +3573,13 @@
         <v>10408</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -3591,7 +3597,7 @@
         <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3602,13 +3608,13 @@
         <v>10409</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -3626,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3637,13 +3643,13 @@
         <v>10410</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -3658,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3677,13 +3683,13 @@
         <v>20101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3701,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3712,13 +3718,13 @@
         <v>20102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3736,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3747,13 +3753,13 @@
         <v>20103</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3782,13 +3788,13 @@
         <v>20104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3817,13 +3823,13 @@
         <v>20105</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3841,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3852,13 +3858,13 @@
         <v>20201</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3876,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3887,13 +3893,13 @@
         <v>20202</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3922,19 +3928,19 @@
         <v>20203</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -3946,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3957,19 +3963,19 @@
         <v>20204</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -3981,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3992,13 +3998,13 @@
         <v>20205</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4016,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4032,13 +4038,13 @@
         <v>20301</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -4056,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4067,13 +4073,13 @@
         <v>20302</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -4091,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4102,13 +4108,13 @@
         <v>20303</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -4126,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4137,13 +4143,13 @@
         <v>20304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4172,13 +4178,13 @@
         <v>20305</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -4196,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4207,13 +4213,13 @@
         <v>20401</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4242,13 +4248,13 @@
         <v>20402</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -4266,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4277,13 +4283,13 @@
         <v>20403</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -4301,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4312,13 +4318,13 @@
         <v>20404</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -4336,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4347,13 +4353,13 @@
         <v>20405</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -4371,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4387,13 +4393,13 @@
         <v>21001</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4411,30 +4417,30 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" customFormat="1" spans="1:11">
       <c r="A71" s="1">
         <v>21002</v>
       </c>
-      <c r="B71" t="s">
-        <v>182</v>
+      <c r="B71" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -4442,34 +4448,34 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="1:11">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>21003</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>185</v>
+      <c r="B72" t="s">
+        <v>192</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -4477,34 +4483,34 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" customFormat="1" spans="1:11">
       <c r="A73" s="1">
         <v>21004</v>
       </c>
-      <c r="B73" t="s">
-        <v>188</v>
+      <c r="B73" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -4512,34 +4518,34 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="4">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="1:11">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>21005</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>191</v>
+      <c r="B74" t="s">
+        <v>198</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -4547,11 +4553,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4562,13 +4568,13 @@
         <v>21006</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4586,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4596,14 +4602,14 @@
       <c r="A76" s="1">
         <v>21007</v>
       </c>
-      <c r="B76" t="s">
-        <v>196</v>
+      <c r="B76" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4617,11 +4623,11 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4631,20 +4637,20 @@
       <c r="A77" s="1">
         <v>21008</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>199</v>
+      <c r="B77" t="s">
+        <v>207</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -4652,11 +4658,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4667,19 +4673,19 @@
         <v>21009</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -4691,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4701,20 +4707,20 @@
       <c r="A79" s="1">
         <v>21010</v>
       </c>
-      <c r="B79" t="s">
-        <v>205</v>
+      <c r="B79" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -4722,11 +4728,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4736,20 +4742,20 @@
       <c r="A80" s="1">
         <v>21011</v>
       </c>
-      <c r="B80" t="s">
-        <v>208</v>
+      <c r="B80" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -4757,661 +4763,395 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:9">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" customFormat="1" spans="1:9">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" customFormat="1" spans="1:9">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="I83" s="4"/>
+    <row r="81" customFormat="1" spans="1:11">
+      <c r="A81" s="1">
+        <v>21012</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>220</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:11">
+      <c r="A82" s="1">
+        <v>21013</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>223</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:11">
+      <c r="A83" s="1">
+        <v>21014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>-1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>226</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="1" spans="1:11">
       <c r="A84" s="1">
-        <v>10001</v>
+        <v>21015</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:11">
-      <c r="A85" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85">
-        <v>11</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>12</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>45</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:11">
-      <c r="A86" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86">
-        <v>11</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>11</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4">
-        <v>101</v>
-      </c>
-      <c r="J86" t="s">
-        <v>215</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:11">
-      <c r="A87" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87">
-        <v>11</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87">
-        <v>15</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J87" t="s">
-        <v>217</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:11">
-      <c r="A88" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88">
-        <v>11</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>15</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>219</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:11">
-      <c r="A89" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89">
-        <v>11</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>15</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>221</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:11">
-      <c r="A90" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>222</v>
-      </c>
-      <c r="E90">
-        <v>11</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>15</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>223</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:11">
-      <c r="A91" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>224</v>
-      </c>
-      <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>15</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>225</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:11">
-      <c r="A92" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>226</v>
-      </c>
-      <c r="E92">
-        <v>11</v>
-      </c>
-      <c r="F92">
-        <v>4</v>
-      </c>
-      <c r="G92">
-        <v>15</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>227</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:11">
-      <c r="A93" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>228</v>
-      </c>
-      <c r="E93">
-        <v>11</v>
-      </c>
-      <c r="F93">
-        <v>4</v>
-      </c>
-      <c r="G93">
-        <v>16</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="4">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>229</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:11">
-      <c r="A94" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>230</v>
-      </c>
-      <c r="E94">
-        <v>11</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>231</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:11">
-      <c r="A95" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95">
-        <v>11</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>17</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>233</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:11">
-      <c r="A96" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>235</v>
-      </c>
-      <c r="E96">
-        <v>11</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
-      <c r="G96">
-        <v>22</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" s="4">
-        <v>105</v>
-      </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:11">
-      <c r="A98" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>237</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <v>-1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>238</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:11">
-      <c r="A99" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>240</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>-1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>241</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:11">
-      <c r="A100" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>-1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>244</v>
-      </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
+    <row r="85" customFormat="1" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" customFormat="1" spans="1:9">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" customFormat="1" spans="1:9">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" customFormat="1" spans="1:2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" customFormat="1" spans="1:9">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" customFormat="1" spans="1:9">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" customFormat="1" spans="1:9">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" customFormat="1" spans="1:9">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" customFormat="1" spans="1:9">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" customFormat="1" spans="1:9">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" customFormat="1" spans="1:9">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" customFormat="1" spans="1:9">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" customFormat="1" spans="1:2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" customFormat="1" spans="1:9">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" customFormat="1" spans="1:9">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" s="4"/>
     </row>
     <row r="101" customFormat="1" spans="1:11">
       <c r="A101" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>245</v>
+        <v>30001</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>-1</v>
       </c>
       <c r="H101" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:9">
-      <c r="A102" s="1"/>
-      <c r="B102" s="6"/>
-      <c r="I102" s="4"/>
+    <row r="102" customFormat="1" spans="1:11">
+      <c r="A102" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>234</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>-1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>235</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="1" spans="1:11">
       <c r="A103" s="1">
-        <v>30101</v>
+        <v>30003</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103">
         <v>-1</v>
       </c>
       <c r="H103" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I103" s="4">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5419,16 +5159,16 @@
     </row>
     <row r="104" customFormat="1" spans="1:11">
       <c r="A104" s="1">
-        <v>30102</v>
+        <v>30004</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5440,190 +5180,370 @@
         <v>-1</v>
       </c>
       <c r="H104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I104" s="4">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="1:11">
-      <c r="A105" s="1">
-        <v>30103</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>257</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105">
-        <v>-1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>251</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>258</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
+    <row r="105" customFormat="1" spans="1:9">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="I105" s="4"/>
     </row>
     <row r="106" customFormat="1" spans="1:11">
       <c r="A106" s="1">
-        <v>30104</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>259</v>
+        <v>30101</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>-1</v>
       </c>
       <c r="H106" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I106" s="4">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>261</v>
-      </c>
-      <c r="K106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>242</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:11">
       <c r="A107" s="1">
-        <v>30105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>262</v>
+        <v>30102</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>-1</v>
       </c>
       <c r="H107" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I107" s="4">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>56</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>248</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:11">
       <c r="A108" s="1">
-        <v>30106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>264</v>
+        <v>30103</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>-1</v>
       </c>
       <c r="H108" t="s">
+        <v>245</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
         <v>251</v>
       </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>137</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:11">
       <c r="A109" s="1">
-        <v>30107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>266</v>
+        <v>30104</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>-1</v>
       </c>
       <c r="H109" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
       </c>
       <c r="J109" t="s">
+        <v>254</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:11">
+      <c r="A110" s="1">
+        <v>30105</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>-1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>245</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>257</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>30106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>-1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>245</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>163</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>30107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>-1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>245</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>30108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113">
+        <v>-1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>245</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>264</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:11">
+      <c r="A114" s="1">
+        <v>30109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>266</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>-1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>245</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>267</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:11">
+      <c r="A115" s="1">
+        <v>30110</v>
+      </c>
+      <c r="B115" t="s">
         <v>268</v>
       </c>
-      <c r="K109" s="4">
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>-1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>245</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>270</v>
+      </c>
+      <c r="K115" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5644,7 +5564,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5661,7 +5581,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16890" windowHeight="9120"/>
+    <workbookView windowWidth="17135" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -370,36 +370,36 @@
     <t>邓茂</t>
   </si>
   <si>
-    <t>铁壁</t>
+    <t>战吼:随机抽1张(普通)黄巾势力卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":1,"rare":1,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:随机抽1张(普通)黄巾势力卡牌</t>
+  </si>
+  <si>
+    <t>高升</t>
+  </si>
+  <si>
+    <t>守护 战吼:随机抽1张(普通)黄巾势力卡牌</t>
+  </si>
+  <si>
+    <t>唐周</t>
+  </si>
+  <si>
+    <t>特殊召唤:我方场上存在黄巾武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":1,"num":"&gt;1"}]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>程远志</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:随机抽1张(普通)黄巾势力卡牌</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":1,"rare":1,"cardType":123}]</t>
-  </si>
-  <si>
-    <t>高升</t>
-  </si>
-  <si>
-    <t>守护 战吼:随机抽1张(普通)黄巾势力卡牌</t>
-  </si>
-  <si>
-    <t>唐周</t>
-  </si>
-  <si>
-    <t>特殊召唤:我方场上存在黄巾武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":1,"num":"&gt;1"}]</t>
-  </si>
-  <si>
     <t>严政</t>
   </si>
   <si>
@@ -430,13 +430,16 @@
     <t>张梁</t>
   </si>
   <si>
-    <t>圣盾 特殊召唤:我方场上存在黄巾武将</t>
+    <t>特殊召唤:我方场上有黄巾武将 获得1张(普通/稀有)黄巾势力卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"rare":12,"cardType":123,"force":1}]</t>
   </si>
   <si>
     <t>张宝</t>
   </si>
   <si>
-    <t>战吼:获得1张(稀有/史诗)黄巾势力卡</t>
+    <t>战吼:获得1张(稀有/史诗)黄巾势力卡牌</t>
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"rare":23,"cardType":123,"force":1}]</t>
@@ -454,19 +457,31 @@
     <t>何进</t>
   </si>
   <si>
-    <t>嘲讽 战吼:士气-5</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":-5}]</t>
-  </si>
-  <si>
-    <t>孔融</t>
+    <t>嘲讽 战吼:士气-5  我方随机东汉武将增加1点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":2,"buffId":401,"buffValue":1}]</t>
+  </si>
+  <si>
+    <t>张温</t>
   </si>
   <si>
     <t>战吼:士气+20</t>
   </si>
   <si>
     <t>[{"id":202,"obj":1,"value":20}]</t>
+  </si>
+  <si>
+    <t>杨彪</t>
+  </si>
+  <si>
+    <t>特殊召唤:士气少于100 战吼:士气+10</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;99"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":10}]</t>
   </si>
   <si>
     <r>
@@ -480,319 +495,396 @@
     </r>
   </si>
   <si>
-    <t>铁壁 战吼:士气-5 抽1张卡</t>
+    <t>铁壁 战吼:士气-10 抽1张卡</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-10},{"id":201,"obj":1,"value":1}]</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>战吼:士气-5 对方随机1个武将降低4点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4}]</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>战吼:士气-5 随机破坏对方1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>圣盾 特殊召唤:士气少于90 战吼:士气+10</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;89"}]</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>守护 特殊召唤:士气少于80 战吼:士气+15</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;79"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":15}]</t>
+  </si>
+  <si>
+    <t>陈留王</t>
+  </si>
+  <si>
+    <t>嘲讽 战吼:士气-5 我方2个随机东汉势力武将获得圣盾和2点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>献帝</t>
+  </si>
+  <si>
+    <t>圣盾 特殊召唤:士气少于70 战吼:士气+20 我方其它武将增加3点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":902,"obj":1,"hp":"&lt;69"}]</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>段珪</t>
+  </si>
+  <si>
+    <t>战吼:我方随机1个十常侍武将增加1-2点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":2,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>侯览</t>
+  </si>
+  <si>
+    <t>战吼:对方随机1个武将降低1-4点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>郭胜</t>
+  </si>
+  <si>
+    <t>战吼:我方其它十常侍武将增加1-2点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>夏恽</t>
+  </si>
+  <si>
+    <t>战吼:随机抽1张(普通/稀有)十常侍卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":3,"rare":12,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>程旷</t>
+  </si>
+  <si>
+    <t>战吼:我方随机1个十常侍武将增加1-3点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":3,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>封谞</t>
+  </si>
+  <si>
+    <t>特殊召唤:我方场上有十常侍武将 战吼:我方随机1个十常侍武将增加1-2点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":3,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>蹇硕</t>
+  </si>
+  <si>
+    <t>圣盾 铁壁 战吼:我方其它十常侍武将增加1-3点攻击</t>
+  </si>
+  <si>
+    <t>102_104</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":3,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>曹节</t>
+  </si>
+  <si>
+    <t>特殊召唤:我方场上有十常侍武将 战吼:对方所有武将降低1-2点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":-2,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>赵忠</t>
+  </si>
+  <si>
+    <t>战吼:获得1张十常侍势力武将卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1,"force":3}]</t>
+  </si>
+  <si>
+    <t>张让</t>
+  </si>
+  <si>
+    <t>战吼:获得1张十常侍势力魔法卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
+  </si>
+  <si>
+    <t>李乐</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>胡才</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:随机抽1张(普通/稀有)盗贼卡牌</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"rare":12,"cardType":123}]</t>
+  </si>
+  <si>
+    <t>郭太</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"103_401","buffValue":"2"}]</t>
+  </si>
+  <si>
+    <t>孙观</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机盗贼武将获得(圣盾/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"102_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>阙宣</t>
+  </si>
+  <si>
+    <t>铁壁 特殊召唤:场上有铁壁武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>管承</t>
+  </si>
+  <si>
+    <t>张牛角</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(守护/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"103_102_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>昌豨</t>
+  </si>
+  <si>
+    <t>铁壁 战吼:我方随机2个盗贼武将获得(嘲讽/圣盾/攻击+4)</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"102_101_401","buffValue":"4"}]</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>铁壁 特殊召唤:场上有铁壁武将 战吼:我方所有盗贼武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>铁壁 双击 战吼:获得1张盗贼势力魔法卡</t>
+  </si>
+  <si>
+    <t>104_105</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":4}]</t>
+  </si>
+  <si>
+    <t>崔州平</t>
+  </si>
+  <si>
+    <t>特殊召唤:场上有武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>石广元</t>
+  </si>
+  <si>
+    <t>特殊召唤:场上有陷阱卡</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":3,"pos":2,"cardType":3,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>孟公威</t>
+  </si>
+  <si>
+    <t>特殊召唤:对方场上有武将</t>
+  </si>
+  <si>
+    <t>[{"id":901,"obj":2,"pos":2,"cardType":1,"num":"&gt;1"}]</t>
+  </si>
+  <si>
+    <t>祢衡</t>
+  </si>
+  <si>
+    <t>战吼:对方所有武将降低3点攻击</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":-3}]</t>
+  </si>
+  <si>
+    <t>娄子伯</t>
+  </si>
+  <si>
+    <t>战吼:我方所有武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>李意</t>
+  </si>
+  <si>
+    <t>战吼:获得1张武将卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>管辂</t>
+  </si>
+  <si>
+    <t>战吼:获得1张通用(魔法/陷阱)卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":23,"force":0}]</t>
+  </si>
+  <si>
+    <t>左慈</t>
+  </si>
+  <si>
+    <t>战吼:获得1张通用魔法卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":0}]</t>
+  </si>
+  <si>
+    <t>于吉</t>
+  </si>
+  <si>
+    <t>战吼:获得1张通用陷阱卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":3,"force":0}]</t>
+  </si>
+  <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>战吼:士气+15 抽一张卡</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":15},{"id":201,"obj":1,"value":1}]</t>
+  </si>
+  <si>
+    <t>黄巾符水</t>
+  </si>
+  <si>
+    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>黄巾符咒</t>
+  </si>
+  <si>
+    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
+  </si>
+  <si>
+    <t>起义</t>
+  </si>
+  <si>
+    <t>随机获得2张(普通/稀有)黄巾势力武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":2,"cardType":1,"force":1,"rare":12}]</t>
+  </si>
+  <si>
+    <t>妖术</t>
+  </si>
+  <si>
+    <t>随机将对方场上1个武将返回卡组</t>
+  </si>
+  <si>
+    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>太平要术</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上2个武将</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
+  </si>
+  <si>
+    <t>口谕</t>
+  </si>
+  <si>
+    <t>士气-5 抽一张卡</t>
   </si>
   <si>
     <t>[{"id":202,"obj":1,"value":-5},{"id":201,"obj":1,"value":1}]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈琳</t>
-    </r>
-  </si>
-  <si>
-    <t>战吼:士气-5 随机破坏对方1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>钟繇</t>
-  </si>
-  <si>
-    <t>战吼:对方随机1个武将降低4点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"buffId":401,"buffValue":-4}]</t>
-  </si>
-  <si>
-    <t>皇甫嵩</t>
-  </si>
-  <si>
-    <t>特殊召唤:士气少于100 战吼:士气+5</t>
-  </si>
-  <si>
-    <t>[{"id":902,"obj":1,"hp":"&lt;99"}]</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":5}]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF191919"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱儁</t>
-    </r>
-  </si>
-  <si>
-    <t>特殊召唤:士气少于90 战吼:士气+10</t>
-  </si>
-  <si>
-    <t>[{"id":902,"obj":1,"hp":"&lt;89"}]</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":10}]</t>
-  </si>
-  <si>
-    <t>卢植</t>
-  </si>
-  <si>
-    <t>守护 特殊召唤:士气少于80 战吼:士气+15</t>
-  </si>
-  <si>
-    <t>[{"id":902,"obj":1,"hp":"&lt;79"}]</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":15}]</t>
-  </si>
-  <si>
-    <t>陈留王</t>
-  </si>
-  <si>
-    <t>嘲讽 战吼:我方2个随机东汉势力武将获得圣盾和2点攻击力</t>
-  </si>
-  <si>
-    <t>101_102</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":2,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>献帝</t>
-  </si>
-  <si>
-    <t>圣盾 特殊召唤:士气少于70 战吼:我方其它武将增加3点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":902,"obj":1,"hp":"&lt;69"}]</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>郭胜</t>
-  </si>
-  <si>
-    <t>夏恽</t>
-  </si>
-  <si>
-    <t>战吼:随机抽1张(普通)十常侍势力卡牌</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":3,"rare":1,"cardType":123}]</t>
-  </si>
-  <si>
-    <t>程旷</t>
-  </si>
-  <si>
-    <t>战吼:我方随机1个十常侍武将增加3点攻击</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>段珪</t>
-  </si>
-  <si>
-    <t>守护</t>
-  </si>
-  <si>
-    <t>侯览</t>
-  </si>
-  <si>
-    <t>嘲讽</t>
-  </si>
-  <si>
-    <t>蹇硕</t>
-  </si>
-  <si>
-    <t>圣盾 铁壁 战吼:我方其它十常侍武将增加2点攻击</t>
-  </si>
-  <si>
-    <t>102_104</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":3,"noself":1,"buffId":401,"buffValue":2}]</t>
-  </si>
-  <si>
-    <t>封谞</t>
-  </si>
-  <si>
-    <t>特殊召唤:我方场上存在十常侍武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":1,"pos":2,"cardType":1,"force":3,"num":"&gt;1"}]</t>
-  </si>
-  <si>
-    <t>曹节</t>
-  </si>
-  <si>
-    <t>赵忠</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:获得1张十常侍势力武将卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":1,"force":3}]</t>
-  </si>
-  <si>
-    <t>张让</t>
-  </si>
-  <si>
-    <t>战吼:获得1张十常侍势力魔法卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":3}]</t>
-  </si>
-  <si>
-    <t>李乐</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}]</t>
-  </si>
-  <si>
-    <t>胡才</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:随机抽1张(普通/稀有)盗贼卡牌</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":4,"rare":12,"cardType":123}]</t>
-  </si>
-  <si>
-    <t>郭太</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"103_401","buffValue":"2"}]</t>
-  </si>
-  <si>
-    <t>孙观</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机盗贼武将获得(圣盾/攻击+3)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"102_401","buffValue":"3"}]</t>
-  </si>
-  <si>
-    <t>阙宣</t>
-  </si>
-  <si>
-    <t>铁壁 特殊召唤:场上存在铁壁武将</t>
-  </si>
-  <si>
-    <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
-  </si>
-  <si>
-    <t>管承</t>
-  </si>
-  <si>
-    <t>张牛角</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机2个盗贼武将获得(守护/圣盾/攻击+4)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"103_102_401","buffValue":"4"}]</t>
-  </si>
-  <si>
-    <t>昌豨</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方随机2个盗贼武将获得(嘲讽/圣盾/攻击+4)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":2,"force":4,"buffId":"102_101_401","buffValue":"4"}]</t>
-  </si>
-  <si>
-    <t>张燕</t>
-  </si>
-  <si>
-    <t>铁壁 战吼:我方所有盗贼武将随机获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>铁壁 双击 战吼:获得1张盗贼势力魔法卡</t>
-  </si>
-  <si>
-    <t>104_105</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"cardType":2,"force":4}]</t>
-  </si>
-  <si>
-    <t>黄巾符水</t>
-  </si>
-  <si>
-    <t>我方随机1个黄巾武将获得圣盾和2点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>黄巾符咒</t>
-  </si>
-  <si>
-    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
-  </si>
-  <si>
-    <t>起义</t>
-  </si>
-  <si>
-    <t>随机获得2张(普通/稀有)黄巾势力武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":2,"cardType":1,"force":1,"rare":12}]</t>
-  </si>
-  <si>
-    <t>妖术</t>
-  </si>
-  <si>
-    <t>随机将对方场上1个武将返回卡组</t>
-  </si>
-  <si>
-    <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>太平要术</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上2个武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
-  </si>
-  <si>
-    <t>口谕</t>
-  </si>
-  <si>
-    <t>士气-5 抽一张卡</t>
-  </si>
-  <si>
     <t>传旨</t>
   </si>
   <si>
@@ -802,6 +894,12 @@
     <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
   </si>
   <si>
+    <t>衣带诏</t>
+  </si>
+  <si>
+    <t>士气-5 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
     <t>密旨</t>
   </si>
   <si>
@@ -811,12 +909,6 @@
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
   </si>
   <si>
-    <t>衣带诏</t>
-  </si>
-  <si>
-    <t>士气-5 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
     <t>圣旨</t>
   </si>
   <si>
@@ -829,10 +921,10 @@
     <t>弄权</t>
   </si>
   <si>
-    <t>我方随机十常侍武将获得铁壁和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":"104_401","buffValue":"0_3"}]</t>
+    <t>我方随机十常侍武将获得1-4点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":401,"buffValue":4,"buffValueRan":1}]</t>
   </si>
   <si>
     <t>谗言</t>
@@ -847,7 +939,7 @@
     <t>党锢</t>
   </si>
   <si>
-    <t>获得1张十常侍卡</t>
+    <t>随机获得1张十常侍卡</t>
   </si>
   <si>
     <t>[{"id":305,"obj":1,"pos":4,"value":1,"force":3}]</t>
@@ -868,10 +960,10 @@
     <t>偷袭</t>
   </si>
   <si>
-    <t>回复8士气 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":8},{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
+    <t>对方士气-5 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
   </si>
   <si>
     <t>落草</t>
@@ -927,6 +1019,48 @@
     <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_104_105_401","buffValue":"2"}]</t>
   </si>
   <si>
+    <t>赤焰</t>
+  </si>
+  <si>
+    <t>减少对方20士气</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-20}]</t>
+  </si>
+  <si>
+    <t>冰雹</t>
+  </si>
+  <si>
+    <t>降低对方所有武将3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":2,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-3}]</t>
+  </si>
+  <si>
+    <t>刚体术</t>
+  </si>
+  <si>
+    <t>我方随机2个武将获得守护、铁壁和攻击+1</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":"103_104_401","buffValue":"0_0_1"}]</t>
+  </si>
+  <si>
+    <t>铁腕术</t>
+  </si>
+  <si>
+    <t>我方随机2个武将增加3点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>雷击</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
+  </si>
+  <si>
     <t>回天术</t>
   </si>
   <si>
@@ -936,6 +1070,60 @@
     <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
   </si>
   <si>
+    <t>旋风</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上1张陷阱卡</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":3,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>援军</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取1张武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>罗刹之盾</t>
+  </si>
+  <si>
+    <t>我方所有武将获得圣盾和攻击+2</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"value":-1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
+  </si>
+  <si>
+    <t>援军排阵</t>
+  </si>
+  <si>
+    <t>随机从卡组抽取2张(普通/稀有)武将</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"cardType":1,"rare":12}]</t>
+  </si>
+  <si>
+    <t>奇兵</t>
+  </si>
+  <si>
+    <t>随机获得1张攻击力达到16的武将卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"cardType":1,"atk":"&gt;16"}]</t>
+  </si>
+  <si>
+    <t>破咒结界</t>
+  </si>
+  <si>
+    <t>抽一张卡 移除场上所有武将buff</t>
+  </si>
+  <si>
+    <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
+  </si>
+  <si>
     <t>天崩地裂</t>
   </si>
   <si>
@@ -945,93 +1133,6 @@
     <t>[{"id":301,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
   </si>
   <si>
-    <t>赤焰</t>
-  </si>
-  <si>
-    <t>减少对方20士气</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":2,"value":-20}]</t>
-  </si>
-  <si>
-    <t>罗刹之盾</t>
-  </si>
-  <si>
-    <t>我方所有武将获得圣盾和攻击+2</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":-1,"noself":1,"buffId":"102_401","buffValue":"0_2"}]</t>
-  </si>
-  <si>
-    <t>刚体术</t>
-  </si>
-  <si>
-    <t>我方随机2个武将获得守护、铁壁和攻击+1</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":"103_104_401","buffValue":"0_0_1"}]</t>
-  </si>
-  <si>
-    <t>铁腕术</t>
-  </si>
-  <si>
-    <t>我方随机2个武将增加3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"value":2,"noself":1,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>雷击</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"cardType":1,"pos":2,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>冰雹</t>
-  </si>
-  <si>
-    <t>降低对方所有武将3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":2,"pos":2,"value":-1,"noself":1,"buffId":401,"buffValue":-3}]</t>
-  </si>
-  <si>
-    <t>援军</t>
-  </si>
-  <si>
-    <t>随机从卡组抽取1张武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>援军排阵</t>
-  </si>
-  <si>
-    <t>随机从卡组抽取2张(普通/稀有)武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"cardType":1,"rare":12}]</t>
-  </si>
-  <si>
-    <t>破咒结界</t>
-  </si>
-  <si>
-    <t>抽一张卡 移除场上所有武将buff</t>
-  </si>
-  <si>
-    <t>[{"id":201,"obj":1,"value":1},{"id":402,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
-  </si>
-  <si>
-    <t>旋风</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上1张陷阱卡</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"cardType":3,"value":1,"noself":1}]</t>
-  </si>
-  <si>
     <t>龙卷风</t>
   </si>
   <si>
@@ -1041,15 +1142,6 @@
     <t>[{"id":301,"obj":3,"pos":2,"cardType":3,"value":-1,"noself":1}]</t>
   </si>
   <si>
-    <t>奇兵</t>
-  </si>
-  <si>
-    <t>随机获得1张攻击力达到16的武将卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"cardType":1,"atk":"&gt;16"}]</t>
-  </si>
-  <si>
     <t>武将反制</t>
   </si>
   <si>
@@ -1089,7 +1181,7 @@
     <t>[{"id":201,"obj":1,"value":1},{"id":202,"obj":1,"value":10}]</t>
   </si>
   <si>
-    <t>调虎离山</t>
+    <t>求援</t>
   </si>
   <si>
     <t>对方攻击时抽一张卡 士气+15</t>
@@ -1129,9 +1221,6 @@
   </si>
   <si>
     <t>对方攻击时对方所有武将攻击-3</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":2,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":-3}]</t>
   </si>
   <si>
     <t>伏兵</t>
@@ -1183,13 +1272,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1356,12 +1457,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF191919"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1697,137 +1792,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,16 +1932,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2197,26 +2298,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1083333333333" customWidth="1"/>
-    <col min="2" max="2" width="9.775" customWidth="1"/>
-    <col min="3" max="3" width="4.89166666666667" customWidth="1"/>
-    <col min="4" max="4" width="40.5583333333333" customWidth="1"/>
-    <col min="5" max="6" width="4.775" customWidth="1"/>
-    <col min="7" max="7" width="7.225" customWidth="1"/>
-    <col min="8" max="8" width="13.225" customWidth="1"/>
-    <col min="9" max="9" width="8.10833333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="9.77777777777778" customWidth="1"/>
+    <col min="3" max="3" width="4.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="40.5555555555556" customWidth="1"/>
+    <col min="5" max="6" width="4.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.22222222222222" customWidth="1"/>
+    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="8.11111111111111" customWidth="1"/>
     <col min="10" max="10" width="13.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.775" customWidth="1"/>
-    <col min="13" max="13" width="9.775" customWidth="1"/>
+    <col min="12" max="12" width="11.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2280,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
-        <v>104</v>
+      <c r="I2" s="5">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -2320,11 +2421,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2335,13 +2436,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2359,7 +2460,7 @@
         <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2370,31 +2471,31 @@
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2425,7 +2526,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -2460,7 +2561,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>101</v>
       </c>
       <c r="J7" t="s">
@@ -2495,7 +2596,7 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -2528,13 +2629,13 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2545,13 +2646,13 @@
         <v>10109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2565,11 +2666,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2580,13 +2681,13 @@
         <v>10110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2600,11 +2701,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2614,176 +2715,141 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" s="1">
-        <v>10201</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>101</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" customFormat="1" spans="1:11">
       <c r="A14" s="1">
-        <v>10208</v>
+        <v>10201</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:11">
+    <row r="15" customFormat="1" spans="1:11">
       <c r="A15" s="1">
         <v>10202</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A17" s="1">
+        <v>10204</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>12</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>104</v>
       </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A16" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" s="1">
-        <v>10207</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="J17" t="s">
         <v>54</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2791,51 +2857,51 @@
     </row>
     <row r="18" customFormat="1" spans="1:11">
       <c r="A18" s="1">
-        <v>10203</v>
+        <v>10205</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A19" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A19" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2844,33 +2910,33 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A20" s="1">
+        <v>10207</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" s="1">
-        <v>10205</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2879,16 +2945,16 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="I20" s="5">
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2896,34 +2962,34 @@
     </row>
     <row r="21" customFormat="1" spans="1:11">
       <c r="A21" s="1">
-        <v>10209</v>
+        <v>10208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>70</v>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2931,16 +2997,16 @@
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" s="1">
-        <v>10210</v>
+        <v>10209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2951,140 +3017,75 @@
       <c r="G22">
         <v>18</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>101</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" s="1">
+        <v>10210</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23">
+        <v>102</v>
+      </c>
+      <c r="J23" t="s">
         <v>74</v>
       </c>
-      <c r="I22">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:11">
-      <c r="A24" s="1">
-        <v>10301</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>104</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:11">
-      <c r="A25" s="1">
-        <v>10302</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:11">
-      <c r="A26" s="1">
-        <v>10303</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="27" customFormat="1" spans="1:11">
       <c r="A27" s="1">
         <v>10304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3102,7 +3103,7 @@
         <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3113,13 +3114,13 @@
         <v>10305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -3128,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3137,7 +3138,7 @@
         <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3145,22 +3146,22 @@
     </row>
     <row r="29" customFormat="1" spans="1:11">
       <c r="A29" s="1">
-        <v>10306</v>
+        <v>10301</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>15</v>
@@ -3168,11 +3169,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>89</v>
+      <c r="I29" s="5">
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3180,16 +3181,16 @@
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" s="1">
-        <v>10307</v>
+        <v>10302</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -3198,16 +3199,16 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3215,34 +3216,34 @@
     </row>
     <row r="31" customFormat="1" spans="1:11">
       <c r="A31" s="1">
-        <v>10308</v>
+        <v>10303</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3250,34 +3251,34 @@
     </row>
     <row r="32" customFormat="1" spans="1:11">
       <c r="A32" s="1">
-        <v>10309</v>
+        <v>10307</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3285,74 +3286,104 @@
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="1">
-        <v>10310</v>
+        <v>10306</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:11">
+      <c r="A34" s="1">
+        <v>10308</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
         <v>18</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="I34" s="4"/>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="1">
-        <v>10401</v>
+        <v>10309</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>104</v>
+      </c>
+      <c r="J35" t="s">
         <v>102</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>15</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>104</v>
-      </c>
-      <c r="J35" t="s">
-        <v>103</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3360,139 +3391,74 @@
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="1">
-        <v>10402</v>
+        <v>10310</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>104</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
         <v>105</v>
       </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>13</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>104</v>
-      </c>
-      <c r="J36" t="s">
-        <v>106</v>
-      </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="1">
-        <v>10403</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>104</v>
-      </c>
-      <c r="J37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:11">
-      <c r="A38" s="1">
-        <v>10404</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>104</v>
-      </c>
-      <c r="J38" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
+    <row r="38" customFormat="1" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" customFormat="1" spans="1:11">
       <c r="A39" s="1">
-        <v>10405</v>
+        <v>10401</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
         <v>104</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3500,34 +3466,34 @@
     </row>
     <row r="40" customFormat="1" spans="1:11">
       <c r="A40" s="1">
-        <v>10406</v>
+        <v>10402</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
         <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3535,34 +3501,34 @@
     </row>
     <row r="41" customFormat="1" spans="1:11">
       <c r="A41" s="1">
-        <v>10407</v>
+        <v>10403</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3570,25 +3536,25 @@
     </row>
     <row r="42" customFormat="1" spans="1:11">
       <c r="A42" s="1">
-        <v>10408</v>
+        <v>10404</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3597,7 +3563,7 @@
         <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3605,34 +3571,34 @@
     </row>
     <row r="43" customFormat="1" spans="1:11">
       <c r="A43" s="1">
-        <v>10409</v>
+        <v>10405</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>18</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>120</v>
       </c>
       <c r="I43">
         <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3640,74 +3606,104 @@
     </row>
     <row r="44" customFormat="1" spans="1:11">
       <c r="A44" s="1">
-        <v>10410</v>
+        <v>10406</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:11">
+      <c r="A45" s="1">
+        <v>10407</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="G44">
-        <v>18</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:9">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="I45" s="4"/>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="1">
-        <v>20101</v>
+        <v>10408</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" s="4">
-        <v>0</v>
+      <c r="I46">
+        <v>104</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3715,34 +3711,34 @@
     </row>
     <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="1">
-        <v>20102</v>
+        <v>10409</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>-1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47">
+        <v>104</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3750,209 +3746,74 @@
     </row>
     <row r="48" customFormat="1" spans="1:11">
       <c r="A48" s="1">
-        <v>20103</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>10410</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" s="4">
-        <v>0</v>
+      <c r="I48" t="s">
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" s="1">
-        <v>20104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:11">
-      <c r="A50" s="1">
-        <v>20105</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>-1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:11">
-      <c r="A52" s="1">
-        <v>20201</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>-1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:11">
-      <c r="A53" s="1">
-        <v>20202</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>-1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>149</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
+    <row r="49" customFormat="1" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="54" customFormat="1" spans="1:11">
       <c r="A54" s="1">
-        <v>20203</v>
+        <v>19001</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>-1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3960,34 +3821,34 @@
     </row>
     <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="1">
-        <v>20204</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>19002</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>-1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3995,74 +3856,104 @@
     </row>
     <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="1">
-        <v>20205</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>155</v>
+        <v>19003</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:9">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="I57" s="4"/>
+    <row r="57" customFormat="1" spans="1:11">
+      <c r="A57" s="1">
+        <v>19004</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="1" spans="1:11">
       <c r="A58" s="1">
-        <v>20301</v>
+        <v>19005</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4070,25 +3961,25 @@
     </row>
     <row r="59" customFormat="1" spans="1:11">
       <c r="A59" s="1">
-        <v>20302</v>
-      </c>
-      <c r="B59" t="s">
-        <v>161</v>
+        <v>19006</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4097,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4105,34 +3996,34 @@
     </row>
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" s="1">
-        <v>20303</v>
+        <v>19007</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
       <c r="G60">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4140,25 +4031,25 @@
     </row>
     <row r="61" customFormat="1" spans="1:11">
       <c r="A61" s="1">
-        <v>20304</v>
+        <v>19008</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4167,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4175,127 +4066,102 @@
     </row>
     <row r="62" customFormat="1" spans="1:11">
       <c r="A62" s="1">
-        <v>20305</v>
+        <v>19009</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
       <c r="G62">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:11">
-      <c r="A64" s="1">
-        <v>20401</v>
-      </c>
-      <c r="B64" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>-1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:11">
-      <c r="A65" s="1">
-        <v>20402</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>-1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>176</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
+    <row r="63" customFormat="1" spans="1:11">
+      <c r="A63" s="1">
+        <v>19010</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>164</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" customFormat="1" spans="1:11">
       <c r="A66" s="1">
-        <v>20403</v>
+        <v>20101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -4303,11 +4169,11 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="5">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4315,22 +4181,22 @@
     </row>
     <row r="67" customFormat="1" spans="1:11">
       <c r="A67" s="1">
-        <v>20404</v>
+        <v>20102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -4338,11 +4204,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4350,22 +4216,22 @@
     </row>
     <row r="68" customFormat="1" spans="1:11">
       <c r="A68" s="1">
-        <v>20405</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>183</v>
+        <v>20103</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -4373,39 +4239,69 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="5">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:9">
-      <c r="A69" s="1"/>
-      <c r="B69" s="5"/>
-      <c r="I69" s="4"/>
+    <row r="69" customFormat="1" spans="1:11">
+      <c r="A69" s="1">
+        <v>20104</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>176</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="1" spans="1:11">
       <c r="A70" s="1">
-        <v>21001</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>186</v>
+        <v>20105</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -4413,69 +4309,34 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="1:11">
-      <c r="A71" s="1">
-        <v>21002</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71">
-        <v>-1</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>191</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    <row r="72" customFormat="1" spans="1:11">
       <c r="A72" s="1">
-        <v>21003</v>
-      </c>
-      <c r="B72" t="s">
-        <v>192</v>
+        <v>20201</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -4483,11 +4344,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="5">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4495,22 +4356,22 @@
     </row>
     <row r="73" customFormat="1" spans="1:11">
       <c r="A73" s="1">
-        <v>21004</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>195</v>
+        <v>20202</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -4518,34 +4379,34 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="5">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" customFormat="1" spans="1:11">
       <c r="A74" s="1">
-        <v>21005</v>
-      </c>
-      <c r="B74" t="s">
-        <v>198</v>
+        <v>20204</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -4553,11 +4414,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="5">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4565,22 +4426,22 @@
     </row>
     <row r="75" customFormat="1" spans="1:11">
       <c r="A75" s="1">
-        <v>21006</v>
-      </c>
-      <c r="B75" t="s">
-        <v>201</v>
+        <v>20203</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -4588,11 +4449,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="5">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4600,22 +4461,22 @@
     </row>
     <row r="76" customFormat="1" spans="1:11">
       <c r="A76" s="1">
-        <v>21007</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>204</v>
+        <v>20205</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -4623,104 +4484,39 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="5">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:11">
-      <c r="A77" s="1">
-        <v>21008</v>
-      </c>
-      <c r="B77" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77">
-        <v>-1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>208</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:11">
-      <c r="A78" s="1">
-        <v>21009</v>
-      </c>
-      <c r="B78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>-1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>211</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
+    <row r="78" customFormat="1" spans="1:9">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="I78" s="5"/>
     </row>
     <row r="79" customFormat="1" spans="1:11">
       <c r="A79" s="1">
-        <v>21010</v>
+        <v>20301</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -4728,11 +4524,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4740,22 +4536,22 @@
     </row>
     <row r="80" customFormat="1" spans="1:11">
       <c r="A80" s="1">
-        <v>21011</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>215</v>
+        <v>20302</v>
+      </c>
+      <c r="B80" t="s">
+        <v>197</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -4763,11 +4559,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4775,22 +4571,22 @@
     </row>
     <row r="81" customFormat="1" spans="1:11">
       <c r="A81" s="1">
-        <v>21012</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
+        <v>20303</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -4798,11 +4594,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="5">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4810,22 +4606,22 @@
     </row>
     <row r="82" customFormat="1" spans="1:11">
       <c r="A82" s="1">
-        <v>21013</v>
-      </c>
-      <c r="B82" t="s">
-        <v>221</v>
+        <v>20304</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -4837,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4845,19 +4641,19 @@
     </row>
     <row r="83" customFormat="1" spans="1:11">
       <c r="A83" s="1">
-        <v>21014</v>
-      </c>
-      <c r="B83" t="s">
-        <v>224</v>
+        <v>20305</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
         <v>4</v>
@@ -4868,237 +4664,523 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="5">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="1:11">
-      <c r="A84" s="1">
-        <v>21015</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>228</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+    <row r="85" customFormat="1" spans="1:11">
+      <c r="A85" s="1">
+        <v>20401</v>
+      </c>
+      <c r="B85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>209</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:11">
+      <c r="A86" s="1">
+        <v>20402</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>212</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:11">
+      <c r="A87" s="1">
+        <v>20403</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
         <v>3</v>
       </c>
-      <c r="G84">
+      <c r="G87">
         <v>-1</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>229</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:9">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" customFormat="1" spans="1:9">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" customFormat="1" spans="1:9">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" customFormat="1" spans="1:2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" customFormat="1" spans="1:9">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89" s="4"/>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>215</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:11">
+      <c r="A88" s="1">
+        <v>20404</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>218</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:11">
+      <c r="A89" s="1">
+        <v>20405</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>221</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="1" spans="1:9">
       <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" customFormat="1" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" customFormat="1" spans="1:9">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" customFormat="1" spans="1:9">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" customFormat="1" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" customFormat="1" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" customFormat="1" spans="1:9">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" customFormat="1" spans="1:2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" customFormat="1" spans="1:9">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" customFormat="1" spans="1:9">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99" s="4"/>
+      <c r="B90" s="7"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="93" customFormat="1" spans="1:11">
+      <c r="A93" s="1">
+        <v>21001</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>224</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:11">
+      <c r="A94" s="1">
+        <v>21002</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>227</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:11">
+      <c r="A95" s="1">
+        <v>21003</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>230</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:11">
+      <c r="A96" s="1">
+        <v>21004</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>233</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:11">
+      <c r="A97" s="1">
+        <v>21005</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>235</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>236</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:11">
+      <c r="A98" s="1">
+        <v>21006</v>
+      </c>
+      <c r="B98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>238</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:11">
+      <c r="A99" s="1">
+        <v>21007</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>241</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:11">
+      <c r="A100" s="1">
+        <v>21008</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>244</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="1" spans="1:11">
       <c r="A101" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>230</v>
+        <v>21009</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101">
         <v>-1</v>
       </c>
-      <c r="H101" t="s">
-        <v>232</v>
-      </c>
-      <c r="I101" s="4">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="5">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:11">
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>233</v>
+        <v>21010</v>
+      </c>
+      <c r="B102" t="s">
+        <v>248</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5109,14 +5191,14 @@
       <c r="G102">
         <v>-1</v>
       </c>
-      <c r="H102" t="s">
-        <v>235</v>
-      </c>
-      <c r="I102" s="4">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -5124,16 +5206,16 @@
     </row>
     <row r="103" customFormat="1" spans="1:11">
       <c r="A103" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>236</v>
+        <v>21011</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5144,14 +5226,14 @@
       <c r="G103">
         <v>-1</v>
       </c>
-      <c r="H103" t="s">
-        <v>238</v>
-      </c>
-      <c r="I103" s="4">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="5">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5159,74 +5241,104 @@
     </row>
     <row r="104" customFormat="1" spans="1:11">
       <c r="A104" s="1">
-        <v>30004</v>
+        <v>21012</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>240</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
       </c>
       <c r="G104">
         <v>-1</v>
       </c>
-      <c r="H104" t="s">
-        <v>241</v>
-      </c>
-      <c r="I104" s="4">
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="1:9">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" customFormat="1" spans="1:11">
+    <row r="105" customFormat="1" spans="1:11">
+      <c r="A105" s="1">
+        <v>21013</v>
+      </c>
+      <c r="B105" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>258</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>-1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>259</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>30101</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>243</v>
+        <v>21014</v>
+      </c>
+      <c r="B106" t="s">
+        <v>260</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <v>-1</v>
       </c>
-      <c r="H106" t="s">
-        <v>245</v>
-      </c>
-      <c r="I106" s="4">
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5234,316 +5346,594 @@
     </row>
     <row r="107" customFormat="1" spans="1:11">
       <c r="A107" s="1">
-        <v>30102</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>246</v>
+        <v>21015</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G107">
         <v>-1</v>
       </c>
-      <c r="H107" t="s">
-        <v>245</v>
-      </c>
-      <c r="I107" s="4">
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="1:11">
-      <c r="A108" s="1">
+    <row r="108" customFormat="1" spans="1:9">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" customFormat="1" spans="1:2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" customFormat="1" spans="1:9">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" customFormat="1" spans="1:9">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:9">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" customFormat="1" spans="1:9">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:9">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" customFormat="1" spans="1:9">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:9">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:9">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" customFormat="1" spans="1:2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" customFormat="1" spans="1:9">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" customFormat="1" spans="1:9">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="122" customFormat="1" spans="1:11">
+      <c r="A122" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>-1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>268</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:11">
+      <c r="A123" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>270</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>-1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>271</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:11">
+      <c r="A124" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>-1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>274</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:11">
+      <c r="A125" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>276</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>-1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>277</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>278</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:9">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" customFormat="1" spans="1:11">
+      <c r="A127" s="1">
+        <v>30101</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>-1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>281</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>278</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:11">
+      <c r="A128" s="1">
+        <v>30102</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>-1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>281</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>284</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:11">
+      <c r="A129" s="1">
         <v>30103</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C108">
+      <c r="B129" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129">
         <v>3</v>
       </c>
-      <c r="D108" t="s">
-        <v>250</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
+      <c r="D129" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
         <v>-1</v>
       </c>
-      <c r="H108" t="s">
-        <v>245</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>251</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:11">
-      <c r="A109" s="1">
+      <c r="H129" t="s">
+        <v>281</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>287</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:11">
+      <c r="A130" s="1">
         <v>30104</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109">
+      <c r="B130" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C130">
         <v>3</v>
       </c>
-      <c r="D109" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>2</v>
-      </c>
-      <c r="G109">
+      <c r="D130" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
         <v>-1</v>
       </c>
-      <c r="H109" t="s">
-        <v>245</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>254</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:11">
-      <c r="A110" s="1">
+      <c r="H130" t="s">
+        <v>281</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>290</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:11">
+      <c r="A131" s="1">
         <v>30105</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110">
+      <c r="B131" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="D110" t="s">
-        <v>256</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110">
+      <c r="D131" t="s">
+        <v>292</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
         <v>-1</v>
       </c>
-      <c r="H110" t="s">
-        <v>245</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>257</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="H131" t="s">
+        <v>281</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>146</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
         <v>30106</v>
       </c>
-      <c r="B111" t="s">
-        <v>258</v>
-      </c>
-      <c r="C111">
+      <c r="B132" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="D111" t="s">
-        <v>259</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="G111">
+      <c r="D132" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
         <v>-1</v>
       </c>
-      <c r="H111" t="s">
-        <v>245</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>163</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="H132" t="s">
+        <v>281</v>
+      </c>
+      <c r="I132" s="5">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>199</v>
+      </c>
+      <c r="K132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
         <v>30107</v>
       </c>
-      <c r="B112" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112">
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="D112" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="D133" t="s">
+        <v>296</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
         <v>3</v>
       </c>
-      <c r="G112">
+      <c r="G133">
         <v>-1</v>
       </c>
-      <c r="H112" t="s">
-        <v>245</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>144</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
+      <c r="H133" t="s">
+        <v>281</v>
+      </c>
+      <c r="I133" s="5">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>179</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
         <v>30108</v>
       </c>
-      <c r="B113" t="s">
-        <v>262</v>
-      </c>
-      <c r="C113">
+      <c r="B134" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="D113" t="s">
-        <v>263</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="D134" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
         <v>4</v>
       </c>
-      <c r="G113">
+      <c r="G134">
         <v>-1</v>
       </c>
-      <c r="H113" t="s">
-        <v>245</v>
-      </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>264</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:11">
-      <c r="A114" s="1">
+      <c r="H134" t="s">
+        <v>281</v>
+      </c>
+      <c r="I134" s="5">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>299</v>
+      </c>
+      <c r="K134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" spans="1:11">
+      <c r="A135" s="1">
         <v>30109</v>
       </c>
-      <c r="B114" t="s">
-        <v>265</v>
-      </c>
-      <c r="C114">
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135">
         <v>3</v>
       </c>
-      <c r="D114" t="s">
-        <v>266</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="D135" t="s">
+        <v>301</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>4</v>
       </c>
-      <c r="G114">
+      <c r="G135">
         <v>-1</v>
       </c>
-      <c r="H114" t="s">
-        <v>245</v>
-      </c>
-      <c r="I114" s="4">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>267</v>
-      </c>
-      <c r="K114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:11">
-      <c r="A115" s="1">
+      <c r="H135" t="s">
+        <v>281</v>
+      </c>
+      <c r="I135" s="5">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>302</v>
+      </c>
+      <c r="K135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="1:11">
+      <c r="A136" s="1">
         <v>30110</v>
       </c>
-      <c r="B115" t="s">
-        <v>268</v>
-      </c>
-      <c r="C115">
+      <c r="B136" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="D115" t="s">
-        <v>269</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="D136" t="s">
+        <v>304</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
         <v>4</v>
       </c>
-      <c r="G115">
+      <c r="G136">
         <v>-1</v>
       </c>
-      <c r="H115" t="s">
-        <v>245</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>270</v>
-      </c>
-      <c r="K115" s="4">
+      <c r="H136" t="s">
+        <v>281</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>305</v>
+      </c>
+      <c r="K136" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5564,7 +5954,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5581,7 +5971,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="311">
   <si>
     <t>id</t>
   </si>
@@ -693,15 +693,21 @@
     <t>阙宣</t>
   </si>
   <si>
-    <t>铁壁 特殊召唤:场上有铁壁武将</t>
+    <t>铁壁 特殊召唤:场上有铁壁武将 战吼:我方随机盗贼武将获得(嘲讽/攻击+2)</t>
   </si>
   <si>
     <t>[{"id":901,"obj":3,"pos":2,"cardType":1,"hasBuff":104,"num":"&gt;1"}]</t>
   </si>
   <si>
+    <t>{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":4,"buffId":"101_401","buffValue":"2"}</t>
+  </si>
+  <si>
     <t>管承</t>
   </si>
   <si>
+    <t>铁壁 特殊召唤:场上有铁壁武将 战吼:我方随机盗贼武将获得(守护/攻击+2)</t>
+  </si>
+  <si>
     <t>张牛角</t>
   </si>
   <si>
@@ -843,10 +849,10 @@
     <t>黄巾符咒</t>
   </si>
   <si>
-    <t>回复10士气 对方随机1个武将减少5点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":20},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
+    <t>士气+10 对方随机1个武将减少4点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":10},{"id":401,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1,"buffId":"401","buffValue":"-5"}]</t>
   </si>
   <si>
     <t>起义</t>
@@ -861,93 +867,99 @@
     <t>妖术</t>
   </si>
   <si>
+    <t>对方士气-5 随机将对方场上1个武将返回卡组</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-5},{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>太平要术</t>
+  </si>
+  <si>
+    <t>对方士气-5 随机破坏对方场上2个武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":2,"value":-5},{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
+  </si>
+  <si>
+    <t>口谕</t>
+  </si>
+  <si>
+    <t>士气-5 抽一张卡</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":201,"obj":1,"value":1}]</t>
+  </si>
+  <si>
+    <t>传旨</t>
+  </si>
+  <si>
+    <t>士气-5 随机从卡组抽取1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":-5},{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>衣带诏</t>
+  </si>
+  <si>
+    <t>士气-5 随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>密旨</t>
+  </si>
+  <si>
+    <t>士气+10 随机获得1张东汉势力的武将</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":10},{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
+  </si>
+  <si>
+    <t>圣旨</t>
+  </si>
+  <si>
+    <t>士气+15 我方所有东汉武将获得圣盾、铁壁、攻击+3</t>
+  </si>
+  <si>
+    <t>[{"id":202,"obj":1,"value":15},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":2,"noself":1,"buffId":"102_104_401","buffValue":"0_0_3"}]</t>
+  </si>
+  <si>
+    <t>弄权</t>
+  </si>
+  <si>
+    <t>我方随机十常侍武将获得1-5点攻击力</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":401,"buffValue":5,"buffValueRan":1}]</t>
+  </si>
+  <si>
+    <t>谗言</t>
+  </si>
+  <si>
+    <t>随机破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
+  </si>
+  <si>
+    <t>党锢</t>
+  </si>
+  <si>
+    <t>随机获得1张十常侍卡</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":4,"value":1,"force":3}]</t>
+  </si>
+  <si>
+    <t>伪诏</t>
+  </si>
+  <si>
     <t>随机将对方场上1个武将返回卡组</t>
   </si>
   <si>
     <t>[{"id":304,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
   </si>
   <si>
-    <t>太平要术</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上2个武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
-  </si>
-  <si>
-    <t>口谕</t>
-  </si>
-  <si>
-    <t>士气-5 抽一张卡</t>
-  </si>
-  <si>
-    <t>[{"id":202,"obj":1,"value":-5},{"id":201,"obj":1,"value":1}]</t>
-  </si>
-  <si>
-    <t>传旨</t>
-  </si>
-  <si>
-    <t>随机从卡组抽取1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>衣带诏</t>
-  </si>
-  <si>
-    <t>士气-5 随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>密旨</t>
-  </si>
-  <si>
-    <t>随机获得1张东汉势力的武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"noself":1,"force":2,"cardType":1}]</t>
-  </si>
-  <si>
-    <t>圣旨</t>
-  </si>
-  <si>
-    <t>我方所有东汉武将获得圣盾和3点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":2,"noself":1,"buffId":"102_401","buffValue":"0_3"}]</t>
-  </si>
-  <si>
-    <t>弄权</t>
-  </si>
-  <si>
-    <t>我方随机十常侍武将获得1-4点攻击力</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"force":3,"noself":1,"buffId":401,"buffValue":4,"buffValueRan":1}]</t>
-  </si>
-  <si>
-    <t>谗言</t>
-  </si>
-  <si>
-    <t>随机破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":1,"noself":1}]</t>
-  </si>
-  <si>
-    <t>党锢</t>
-  </si>
-  <si>
-    <t>随机获得1张十常侍卡</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":4,"value":1,"force":3}]</t>
-  </si>
-  <si>
-    <t>伪诏</t>
-  </si>
-  <si>
     <t>结党</t>
   </si>
   <si>
@@ -978,7 +990,7 @@
     <t>聚众</t>
   </si>
   <si>
-    <t>对方士气-10 我方所有盗贼武将获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
+    <t>对方士气-10 我方所有盗贼武将获得(嘲讽/守护/圣盾/双击/攻击+2)</t>
   </si>
   <si>
     <t>[{"id":202,"obj":2,"value":-10},{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"force":4,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
@@ -996,10 +1008,10 @@
     <t>占山为王</t>
   </si>
   <si>
-    <t>随机从卡组抽取2张盗贼武将</t>
-  </si>
-  <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":4,"cardType":1}]</t>
+    <t>抽一张卡 我方所有盗贼武将获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
+  </si>
+  <si>
+    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":4,"cardType":1},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
   </si>
   <si>
     <r>
@@ -1133,7 +1145,7 @@
     <t>[{"id":301,"obj":3,"pos":2,"cardType":1,"value":-1,"noself":1}]</t>
   </si>
   <si>
-    <t>龙卷风</t>
+    <t>风龙天旋</t>
   </si>
   <si>
     <t>破坏场上所有陷阱卡</t>
@@ -1142,6 +1154,75 @@
     <t>[{"id":301,"obj":3,"pos":2,"cardType":3,"value":-1,"noself":1}]</t>
   </si>
   <si>
+    <t>补给</t>
+  </si>
+  <si>
+    <t>对方抽卡时抽一张卡 士气+10</t>
+  </si>
+  <si>
+    <t>{"id":1003,"obj":2}</t>
+  </si>
+  <si>
+    <t>[{"id":201,"obj":1,"value":1},{"id":202,"obj":1,"value":10}]</t>
+  </si>
+  <si>
+    <t>求援</t>
+  </si>
+  <si>
+    <t>对方攻击时抽一张卡 士气+15</t>
+  </si>
+  <si>
+    <t>{"id":1005,"obj":2}</t>
+  </si>
+  <si>
+    <t>破咒</t>
+  </si>
+  <si>
+    <t>对方攻击时清除对方所有武将buff</t>
+  </si>
+  <si>
+    <t>[{"id":402,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
+  </si>
+  <si>
+    <t>军魂</t>
+  </si>
+  <si>
+    <t>对方攻击时我方所有武将随机获得buff</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
+  </si>
+  <si>
+    <t>增我将攻</t>
+  </si>
+  <si>
+    <t>对方攻击时我方所有武将攻击+3</t>
+  </si>
+  <si>
+    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":3}]</t>
+  </si>
+  <si>
+    <t>减敌将攻</t>
+  </si>
+  <si>
+    <t>对方攻击时对方所有武将攻击-3</t>
+  </si>
+  <si>
+    <t>伏兵</t>
+  </si>
+  <si>
+    <t>对方攻击时破坏对方场上1个武将</t>
+  </si>
+  <si>
+    <t>伏兵连阵</t>
+  </si>
+  <si>
+    <t>对方攻击时破坏对方场上2个武将</t>
+  </si>
+  <si>
+    <t>[{"id":301,"obj":2,"pos":2,"cardType":1,"value":2,"noself":1}]</t>
+  </si>
+  <si>
     <t>武将反制</t>
   </si>
   <si>
@@ -1167,72 +1248,6 @@
   </si>
   <si>
     <t>{"id":1013,"obj":2}</t>
-  </si>
-  <si>
-    <t>补给</t>
-  </si>
-  <si>
-    <t>对方抽卡时抽一张卡 士气+10</t>
-  </si>
-  <si>
-    <t>{"id":1003,"obj":2}</t>
-  </si>
-  <si>
-    <t>[{"id":201,"obj":1,"value":1},{"id":202,"obj":1,"value":10}]</t>
-  </si>
-  <si>
-    <t>求援</t>
-  </si>
-  <si>
-    <t>对方攻击时抽一张卡 士气+15</t>
-  </si>
-  <si>
-    <t>{"id":1005,"obj":2}</t>
-  </si>
-  <si>
-    <t>破咒</t>
-  </si>
-  <si>
-    <t>对方攻击时清除对方所有武将buff</t>
-  </si>
-  <si>
-    <t>[{"id":402,"obj":2,"pos":2,"cardType":1,"value":-1,"noself":1,"buffId":-1}]</t>
-  </si>
-  <si>
-    <t>军魂</t>
-  </si>
-  <si>
-    <t>对方攻击时我方所有武将随机获得buff</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":"101_103_102_104_105_401","buffValue":"3"}]</t>
-  </si>
-  <si>
-    <t>增我将攻</t>
-  </si>
-  <si>
-    <t>对方攻击时我方所有武将攻击+3</t>
-  </si>
-  <si>
-    <t>[{"id":401,"obj":1,"pos":2,"cardType":1,"value":-1,"buffId":401,"buffValue":3}]</t>
-  </si>
-  <si>
-    <t>减敌将攻</t>
-  </si>
-  <si>
-    <t>对方攻击时对方所有武将攻击-3</t>
-  </si>
-  <si>
-    <t>伏兵</t>
-  </si>
-  <si>
-    <t>对方攻击时破坏对方场上1个武将</t>
-  </si>
-  <si>
-    <t>伏兵连阵</t>
-  </si>
-  <si>
-    <t>对方攻击时破坏对方场上2个武将</t>
   </si>
   <si>
     <t>十面埋伏</t>
@@ -2298,10 +2313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3598,7 +3613,7 @@
         <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3609,13 +3624,13 @@
         <v>10406</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -3633,7 +3648,7 @@
         <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3644,13 +3659,13 @@
         <v>10407</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -3668,7 +3683,7 @@
         <v>104</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3679,13 +3694,13 @@
         <v>10408</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -3703,7 +3718,7 @@
         <v>104</v>
       </c>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3714,13 +3729,13 @@
         <v>10409</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -3738,7 +3753,7 @@
         <v>104</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3749,13 +3764,13 @@
         <v>10410</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -3770,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3789,13 +3804,13 @@
         <v>19001</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3807,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3824,13 +3839,13 @@
         <v>19002</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3842,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3859,13 +3874,13 @@
         <v>19003</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3877,7 +3892,7 @@
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3894,13 +3909,13 @@
         <v>19004</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3918,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3929,13 +3944,13 @@
         <v>19005</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3953,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3964,13 +3979,13 @@
         <v>19006</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3988,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3999,13 +4014,13 @@
         <v>19007</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4023,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4034,13 +4049,13 @@
         <v>19008</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4058,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4069,13 +4084,13 @@
         <v>19009</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4093,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4104,13 +4119,13 @@
         <v>19010</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4128,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4149,13 +4164,13 @@
         <v>20101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4173,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4184,13 +4199,13 @@
         <v>20102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4208,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4219,13 +4234,13 @@
         <v>20103</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4243,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4254,13 +4269,13 @@
         <v>20104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4278,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4289,13 +4304,13 @@
         <v>20105</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4313,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4324,13 +4339,13 @@
         <v>20201</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -4348,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4359,13 +4374,13 @@
         <v>20202</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -4383,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4394,13 +4409,13 @@
         <v>20204</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -4429,13 +4444,13 @@
         <v>20203</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -4453,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4464,13 +4479,13 @@
         <v>20205</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -4488,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4504,13 +4519,13 @@
         <v>20301</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -4528,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4539,13 +4554,13 @@
         <v>20302</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -4563,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4574,13 +4589,13 @@
         <v>20303</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -4598,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4609,13 +4624,13 @@
         <v>20304</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -4633,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4644,13 +4659,13 @@
         <v>20305</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -4668,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4679,13 +4694,13 @@
         <v>20401</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -4703,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4714,13 +4729,13 @@
         <v>20402</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -4738,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4749,19 +4764,19 @@
         <v>20403</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E87">
         <v>4</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -4773,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4784,13 +4799,13 @@
         <v>20404</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -4808,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4819,13 +4834,13 @@
         <v>20405</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -4843,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4859,13 +4874,13 @@
         <v>21001</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4883,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4894,13 +4909,13 @@
         <v>21002</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4918,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4929,13 +4944,13 @@
         <v>21003</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4953,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4964,13 +4979,13 @@
         <v>21004</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4988,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4999,13 +5014,13 @@
         <v>21005</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -5023,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5034,13 +5049,13 @@
         <v>21006</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5058,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5069,13 +5084,13 @@
         <v>21007</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5093,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5104,13 +5119,13 @@
         <v>21008</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5128,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -5139,13 +5154,13 @@
         <v>21009</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5163,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -5174,13 +5189,13 @@
         <v>21010</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5198,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -5209,13 +5224,13 @@
         <v>21011</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5233,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5244,13 +5259,13 @@
         <v>21012</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5268,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -5279,13 +5294,13 @@
         <v>21013</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5303,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5314,13 +5329,13 @@
         <v>21014</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5338,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5349,13 +5364,13 @@
         <v>21015</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5373,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -5442,123 +5457,18 @@
       <c r="B120" s="2"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="122" customFormat="1" spans="1:11">
-      <c r="A122" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>267</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-      <c r="G122">
-        <v>-1</v>
-      </c>
-      <c r="H122" t="s">
-        <v>268</v>
-      </c>
-      <c r="I122" s="5">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>23</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:11">
-      <c r="A123" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>-1</v>
-      </c>
-      <c r="H123" t="s">
-        <v>271</v>
-      </c>
-      <c r="I123" s="5">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>23</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" customFormat="1" spans="1:11">
-      <c r="A124" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-      <c r="D124" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>-1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>274</v>
-      </c>
-      <c r="I124" s="5">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>23</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-    </row>
     <row r="125" customFormat="1" spans="1:11">
       <c r="A125" s="1">
         <v>30004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5570,35 +5480,65 @@
         <v>-1</v>
       </c>
       <c r="H125" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I125" s="5">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="1" spans="1:9">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="I126" s="5"/>
+    <row r="126" customFormat="1" spans="1:11">
+      <c r="A126" s="1">
+        <v>30101</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>275</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>-1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>276</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>273</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="1" spans="1:11">
       <c r="A127" s="1">
-        <v>30101</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>279</v>
+        <v>30102</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5610,13 +5550,13 @@
         <v>-1</v>
       </c>
       <c r="H127" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I127" s="5">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5624,16 +5564,16 @@
     </row>
     <row r="128" customFormat="1" spans="1:11">
       <c r="A128" s="1">
-        <v>30102</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>282</v>
+        <v>30103</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -5645,13 +5585,13 @@
         <v>-1</v>
       </c>
       <c r="H128" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I128" s="5">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5659,34 +5599,34 @@
     </row>
     <row r="129" customFormat="1" spans="1:11">
       <c r="A129" s="1">
-        <v>30103</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>285</v>
+        <v>30104</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <v>-1</v>
       </c>
       <c r="H129" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I129" s="5">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5694,16 +5634,16 @@
     </row>
     <row r="130" customFormat="1" spans="1:11">
       <c r="A130" s="1">
-        <v>30104</v>
+        <v>30105</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5715,30 +5655,30 @@
         <v>-1</v>
       </c>
       <c r="H130" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I130" s="5">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>290</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
-        <v>30105</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>291</v>
+        <v>30106</v>
+      </c>
+      <c r="B131" t="s">
+        <v>288</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5750,13 +5690,13 @@
         <v>-1</v>
       </c>
       <c r="H131" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I131" s="5">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="K131" s="5">
         <v>0</v>
@@ -5764,51 +5704,51 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="1">
-        <v>30106</v>
+        <v>30107</v>
       </c>
       <c r="B132" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C132">
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132">
         <v>-1</v>
       </c>
       <c r="H132" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I132" s="5">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="K132" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" customFormat="1" spans="1:11">
       <c r="A133" s="1">
-        <v>30107</v>
-      </c>
-      <c r="B133" t="s">
-        <v>295</v>
+        <v>30001</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5820,100 +5760,100 @@
         <v>-1</v>
       </c>
       <c r="H133" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I133" s="5">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>179</v>
-      </c>
-      <c r="K133" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:11">
       <c r="A134" s="1">
-        <v>30108</v>
-      </c>
-      <c r="B134" t="s">
-        <v>297</v>
+        <v>30002</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134">
         <v>-1</v>
       </c>
       <c r="H134" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="I134" s="5">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>299</v>
-      </c>
-      <c r="K134" s="5">
+        <v>23</v>
+      </c>
+      <c r="K134">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:11">
       <c r="A135" s="1">
-        <v>30109</v>
-      </c>
-      <c r="B135" t="s">
-        <v>300</v>
+        <v>30003</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G135">
         <v>-1</v>
       </c>
       <c r="H135" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
       </c>
       <c r="J135" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>30108</v>
+      </c>
+      <c r="B136" t="s">
         <v>302</v>
-      </c>
-      <c r="K135" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="1" spans="1:11">
-      <c r="A136" s="1">
-        <v>30110</v>
-      </c>
-      <c r="B136" t="s">
-        <v>303</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5925,15 +5865,85 @@
         <v>-1</v>
       </c>
       <c r="H136" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I136" s="5">
         <v>0</v>
       </c>
       <c r="J136" t="s">
+        <v>304</v>
+      </c>
+      <c r="K136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" spans="1:11">
+      <c r="A137" s="1">
+        <v>30109</v>
+      </c>
+      <c r="B137" t="s">
         <v>305</v>
       </c>
-      <c r="K136" s="5">
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>-1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>276</v>
+      </c>
+      <c r="I137" s="5">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>307</v>
+      </c>
+      <c r="K137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="1:11">
+      <c r="A138" s="1">
+        <v>30110</v>
+      </c>
+      <c r="B138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>309</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138">
+        <v>-1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>276</v>
+      </c>
+      <c r="I138" s="5">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>310</v>
+      </c>
+      <c r="K138" s="5">
         <v>0</v>
       </c>
     </row>

--- a/sg.xlsx
+++ b/sg.xlsx
@@ -1011,7 +1011,7 @@
     <t>抽一张卡 我方所有盗贼武将获得(嘲讽/守护/圣盾/双击/攻击+3)</t>
   </si>
   <si>
-    <t>[{"id":305,"obj":1,"pos":3,"value":2,"noself":1,"force":4,"cardType":1},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
+    <t>[{"id":201,"obj":1,"value":1},{"id":401,"obj":1,"pos":2,"cardType":1,"value":1,"buffId":"101_103_102_105_401","buffValue":"3"}]</t>
   </si>
   <si>
     <r>
@@ -2315,8 +2315,8 @@
   <sheetPr/>
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>102</v>
